--- a/class_dependency_data.xlsx
+++ b/class_dependency_data.xlsx
@@ -1,20 +1,167 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2471A732-B1AB-490C-861D-55683D1AA949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="graph_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">graph_data!$A$1:$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DE2BBAB4-8705-4C44-9A8F-390832B92C95}</author>
+    <author>tc={A55805AA-51BF-41CA-A2C5-EF18695F81FE}</author>
+    <author>tc={DD2D7DCB-779A-4C22-9038-6EFDB83B2577}</author>
+    <author>tc={5C745016-0A7B-41C6-BD46-EC626B8D230E}</author>
+    <author>tc={BDAE8895-9CF3-4726-A3BB-D2AC04E011FF}</author>
+    <author>tc={C4FC57EC-D9A7-4DDA-AF8F-4E997F5E80B6}</author>
+    <author>tc={596B0B68-2E1D-4389-88DE-3F71667698FD}</author>
+    <author>tc={052800C7-ABE8-407D-A553-B00CD9487A7A}</author>
+    <author>tc={284E1550-6FCC-4433-A220-DD49B71E52C9}</author>
+    <author>tc={E15EE89D-A874-4F8A-8BD4-F30403B049B6}</author>
+    <author>tc={4621FD7B-D549-440F-BCA4-6B29E2BE8113}</author>
+    <author>tc={D3A30D8B-9506-424A-A326-FA1FE80FBF42}</author>
+    <author>tc={9E46EF2C-15F4-48A9-91BA-CD2A8FC96666}</author>
+  </authors>
+  <commentList>
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{DE2BBAB4-8705-4C44-9A8F-390832B92C95}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Removi "Morfofisiologia Humana I", pois é disciplina limitada de um pós-BI</t>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="1" shapeId="0" xr:uid="{A55805AA-51BF-41CA-A2C5-EF18695F81FE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Retirei Imunologia pois a disciplina não existe, apenas "Fundamentos da Imunologia e "Imunologia Aplicada"</t>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="2" shapeId="0" xr:uid="{DD2D7DCB-779A-4C22-9038-6EFDB83B2577}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Retirei disciplina incompleta "Progr"</t>
+      </text>
+    </comment>
+    <comment ref="B108" authorId="3" shapeId="0" xr:uid="{5C745016-0A7B-41C6-BD46-EC626B8D230E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Retirada de disciplina "Estrutura Atômica e Molecular Avançada" que não existe, apenas "Estrutura Atômica e Molecular"</t>
+      </text>
+    </comment>
+    <comment ref="B109" authorId="4" shapeId="0" xr:uid="{BDAE8895-9CF3-4726-A3BB-D2AC04E011FF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Retirada de disciplina incompleta "Processament".</t>
+      </text>
+    </comment>
+    <comment ref="B125" authorId="5" shapeId="0" xr:uid="{C4FC57EC-D9A7-4DDA-AF8F-4E997F5E80B6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Retirei "Zoologia de Invertebrados II", pois no catálogo aparece somente a disciplina I.</t>
+      </text>
+    </comment>
+    <comment ref="B128" authorId="6" shapeId="0" xr:uid="{596B0B68-2E1D-4389-88DE-3F71667698FD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</t>
+      </text>
+    </comment>
+    <comment ref="B129" authorId="7" shapeId="0" xr:uid="{052800C7-ABE8-407D-A553-B00CD9487A7A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</t>
+      </text>
+    </comment>
+    <comment ref="B130" authorId="8" shapeId="0" xr:uid="{284E1550-6FCC-4433-A220-DD49B71E52C9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</t>
+      </text>
+    </comment>
+    <comment ref="B131" authorId="9" shapeId="0" xr:uid="{E15EE89D-A874-4F8A-8BD4-F30403B049B6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</t>
+      </text>
+    </comment>
+    <comment ref="B132" authorId="10" shapeId="0" xr:uid="{4621FD7B-D549-440F-BCA4-6B29E2BE8113}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</t>
+      </text>
+    </comment>
+    <comment ref="B147" authorId="11" shapeId="0" xr:uid="{D3A30D8B-9506-424A-A326-FA1FE80FBF42}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</t>
+      </text>
+    </comment>
+    <comment ref="B165" authorId="12" shapeId="0" xr:uid="{9E46EF2C-15F4-48A9-91BA-CD2A8FC96666}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Retirada de disciplina incompleta "C"</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="585">
   <si>
     <t>Classes</t>
   </si>
@@ -25,51 +172,93 @@
     <t>Álgebra Linear</t>
   </si>
   <si>
+    <t>Geometria Analítica</t>
+  </si>
+  <si>
     <t>Álgebra Linear Avançada</t>
   </si>
   <si>
+    <t>Álgebra Linear; Matemática Discreta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Algoritmos e Estrutura de Dados I </t>
   </si>
   <si>
+    <t>Programação Estruturada; Processamento da Informação</t>
+  </si>
+  <si>
     <t>Algoritmos e Estruturas de Dados I</t>
   </si>
   <si>
     <t>Algoritmos e Estruturas de Dados II</t>
   </si>
   <si>
+    <t>Algoritmos e Estruturas de Dados I; Programação Estruturada; Processamento da Informação</t>
+  </si>
+  <si>
     <t>Algoritmos em Grafos</t>
   </si>
   <si>
+    <t>Natureza da Informação; Funções de Uma Variável; Algoritmos e Estruturas de Dados I; Algoritmos e Estruturas de Dados II; Programação Estruturada; Matemática Discreta I; Matemática Discreta II</t>
+  </si>
+  <si>
     <t>Análise de Algoritmos I</t>
   </si>
   <si>
+    <t>Matemática Discreta II; Matemática Discreta I; Algoritmos em Grafos; Algoritmos e Estruturas de Dados I; Algoritmos e Estruturas de Dados II; Programação Estruturada; Processamento da Informação; Funções de Uma Variável</t>
+  </si>
+  <si>
     <t>Análise de Algoritmos II</t>
   </si>
   <si>
+    <t>Análise de Algoritmos I; Algoritmos em Grafos; Matemática Discreta I; Matemática Discreta II; Algoritmos e Estruturas de Dados I; Algoritmos e Estruturas de Dados II; Programação Estruturada; Processamento da Informação; Funções de Uma Variável</t>
+  </si>
+  <si>
     <t>Análise de Fourier e aplicações</t>
   </si>
   <si>
+    <t>Funções de Várias Variáveis; Variáveis Complexas e Aplicações</t>
+  </si>
+  <si>
     <t>Análise de Regressão</t>
   </si>
   <si>
+    <t>Álgebra Linear; Cálculo de Probabilidade; Introdução à Inferência Estatística</t>
+  </si>
+  <si>
     <t>Análise no Rn I</t>
   </si>
   <si>
+    <t>Álgebra Linear; Análise Real I</t>
+  </si>
+  <si>
     <t>Análise no Rn II</t>
   </si>
   <si>
+    <t>Álgebra Linear Avançada; Análise Real II; Análise no Rn I</t>
+  </si>
+  <si>
     <t>Análise Real I</t>
   </si>
   <si>
+    <t>Introdução às Equações Diferenciais Ordinárias; Números Reais e Sequências</t>
+  </si>
+  <si>
     <t>Análise Real II</t>
   </si>
   <si>
     <t>Aproximação Teórica e Numérica I</t>
   </si>
   <si>
+    <t>Álgebra Linear; Análise Real II; Processamento da Informação</t>
+  </si>
+  <si>
     <t>Arquitetura de Computadores</t>
   </si>
   <si>
+    <t>Sistemas Digitais; Circuitos Digitais; Natureza da Informação; Fenômenos Eletromagnéticos; Algoritmos e Estruturas de Dados I; Programação Estruturada; Processamento da Informação</t>
+  </si>
+  <si>
     <t>Base Experimental das Ciências Naturais</t>
   </si>
   <si>
@@ -88,54 +277,96 @@
     <t>Bioestatística</t>
   </si>
   <si>
+    <t>Computação Científica Aplicada a Problemas Biológicos</t>
+  </si>
+  <si>
     <t>Bioética</t>
   </si>
   <si>
     <t>Biofísica de Membranas</t>
   </si>
   <si>
+    <t>Introdução à Neurociência</t>
+  </si>
+  <si>
     <t>Biologia Celular</t>
   </si>
   <si>
+    <t>Evolução e Diversificação da Vida na Terra</t>
+  </si>
+  <si>
     <t>Biologia Sintética</t>
   </si>
   <si>
+    <t>Genética II; Bioquímica: estrutura, propriedade e funções de biomoléculas</t>
+  </si>
+  <si>
     <t>Bioquímica Funcional</t>
   </si>
   <si>
+    <t>Transformações Químicas; Bioquímica: estrutura, propriedade e funções de biomoléculas; Biologia Celular</t>
+  </si>
+  <si>
     <t>Bioquímica: Estrutura, Propriedade e Funções de biomoléculas</t>
   </si>
   <si>
+    <t>Estrutura da Matéria; Transformações Químicas</t>
+  </si>
+  <si>
     <t>Biotecnologia Animal</t>
   </si>
   <si>
+    <t>Biologia Molecular e Biotecnologia; Biologia celular</t>
+  </si>
+  <si>
     <t>Biotecnologia Humana</t>
   </si>
   <si>
     <t>Biotecnologia Vegetal</t>
   </si>
   <si>
+    <t>Genética I; Genética II; Fisiologia Vegetal I; Fisiologia Vegetal II</t>
+  </si>
+  <si>
     <t>Cálculo de Probabilidade</t>
   </si>
   <si>
+    <t>Funções de Várias Variáveis; Introdução à Probabilidade e à Estatística;Matemática Discreta</t>
+  </si>
+  <si>
     <t>Cálculo Numérico</t>
   </si>
   <si>
+    <t>Funções de Uma Variável; Processamento da Informação</t>
+  </si>
+  <si>
     <t>Cálculo Vetorial e Tensorial</t>
   </si>
   <si>
+    <t>Funções de Várias Variáveis</t>
+  </si>
+  <si>
     <t>Ciência Tecnologia e Sociedade</t>
   </si>
   <si>
     <t>Cinética Química</t>
   </si>
   <si>
+    <t>Transformações Químicas; Funções de uma variável; Princípios de Termodinâmica</t>
+  </si>
+  <si>
     <t>Circuitos Digitais</t>
   </si>
   <si>
+    <t>Natureza da Informação; Fenômenos Eletromagnéticos</t>
+  </si>
+  <si>
     <t>Circuitos Elétricos e Fotônica</t>
   </si>
   <si>
+    <t>Fenômenos Eletromagnéticos</t>
+  </si>
+  <si>
     <t>Circuitos Elétricos I</t>
   </si>
   <si>
@@ -145,9 +376,15 @@
     <t>Compiladores e Interpretadores</t>
   </si>
   <si>
+    <t>Linguagens Formais e Autômatos; Matemática Discreta II; Matemática Discreta I; Funções de Uma Variável; Análise de Algoritmos II; Análise de Algoritmos I; Algoritmos em Grafos; Algoritmos e Estruturas de Dados II; Algoritmos e Estruturas de Dados I</t>
+  </si>
+  <si>
     <t>Computação Gráfica</t>
   </si>
   <si>
+    <t>Algoritmos e Estrutura de Dados I; Programação Estruturada; Processamento da Informação; Programação Orientada a Objetos; Geometria Analítica</t>
+  </si>
+  <si>
     <t>Computadores, Ética e Sociedade</t>
   </si>
   <si>
@@ -157,6 +394,9 @@
     <t>Comunicação e Redes</t>
   </si>
   <si>
+    <t>Processamento da Informação</t>
+  </si>
+  <si>
     <t>Desenho Universal e Tecnologia Assistiva</t>
   </si>
   <si>
@@ -169,108 +409,180 @@
     <t>Ecologia vegetal</t>
   </si>
   <si>
+    <t>Práticas de Ecologia</t>
+  </si>
+  <si>
     <t>Eletroanalítica e Instrumentação em Química</t>
   </si>
   <si>
+    <t>Química Analítica Clássica I; Química Analítica Clássica II; Espectroanalítica Molecular e Atômica; Eletroquímica</t>
+  </si>
+  <si>
     <t>Eletromagnetismo I</t>
   </si>
   <si>
+    <t>Fenômenos Eletromagnéticos; Cálculo Vetorial e Tensorial</t>
+  </si>
+  <si>
     <t>Eletrônica Analógica Aplicada</t>
   </si>
   <si>
     <t>Eletrônica Digital</t>
   </si>
   <si>
+    <t>Circuitos Elétricos e Fotônica; Circuitos Elétricos I</t>
+  </si>
+  <si>
     <t>Eletroquímica</t>
   </si>
   <si>
     <t>Empreendedorismo e planejamento de projetos em Biotecnologia</t>
   </si>
   <si>
+    <t>Introdução à Biotecnologia</t>
+  </si>
+  <si>
     <t>Engenharia de Software</t>
   </si>
   <si>
+    <t>Programação Orientada a Objetos; Programação Estruturada; Processamento da Informação</t>
+  </si>
+  <si>
     <t>Engenharia Econômica</t>
   </si>
   <si>
+    <t>Funções de Uma Variável</t>
+  </si>
+  <si>
     <t>Engenharia Metabólica</t>
   </si>
   <si>
+    <t>Biologia Molecular e Biotecnologia; Bioquímica: estrutura, propriedades e funções de biomoléculas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enzimologia e Biocatálise </t>
   </si>
   <si>
+    <t>Biologia Molecular e Biotecnologia; Biologia Celular; Genética II; Bioquímica: estrutura, propriedades e funções de biomoléculas; Farmacologia</t>
+  </si>
+  <si>
     <t>Equações Diferenciais Ordinárias</t>
   </si>
   <si>
+    <t>Álgebra Linear Avançada; Análise no Rn I</t>
+  </si>
+  <si>
     <t>Equações Diferenciais Parciais</t>
   </si>
   <si>
+    <t>Análise no Rn I; Análise Real II</t>
+  </si>
+  <si>
     <t>Espectroanalítica Molecular e Atômica</t>
   </si>
   <si>
+    <t>Química Analítica Clássica I; Química Analítica Clássica II</t>
+  </si>
+  <si>
     <t>Estrutura da Matéria</t>
   </si>
   <si>
     <t>Estrutura da Matéria Avançada</t>
   </si>
   <si>
+    <t>Fenômenos Eletromagnéticos; Funções de uma variável; Funções de Várias Variáveis; Transformações Químicas; Fundamentos de Química</t>
+  </si>
+  <si>
     <t>Estrutura e Dinâmica Social</t>
   </si>
   <si>
     <t>Evolução e Diversidade de Plantas I</t>
   </si>
   <si>
+    <t>Evolução e Diversificação da Vida na Terra; Sistemática e Biogeografia</t>
+  </si>
+  <si>
     <t>Evolução e Diversidade de Plantas II</t>
   </si>
   <si>
-    <t>Evolução e Diversificação da Vida na Terra</t>
+    <t>Evolução e Diversificação da Vida na Terra; Sistemática e Biogeografia; Evolução e Diversidade de Plantas I</t>
   </si>
   <si>
     <t>Farmacologia</t>
   </si>
   <si>
+    <t>Bioquímica: estrutura, propriedade e funções de biomoléculas</t>
+  </si>
+  <si>
     <t>Fenômenos de Transporte</t>
   </si>
   <si>
-    <t>Fenômenos Eletromagnéticos</t>
+    <t>Fenômenos Térmicos</t>
+  </si>
+  <si>
+    <t>Bases Matemáticas; Fenômenos Mecânicos; Funções de Uma Variável; Funções de Várias Variáveis; Geometria Analítica; Introdução às Equações Diferenciais Ordinárias</t>
   </si>
   <si>
     <t>Fenômenos Mecânicos</t>
   </si>
   <si>
-    <t>Fenômenos Térmicos</t>
+    <t>Geometria Analitica; Funções de Uma Variável; Bases Matemáticas</t>
+  </si>
+  <si>
+    <t>Estrutura da Matéria; Fenômenos Mecânicos; Funções de uma Variável</t>
   </si>
   <si>
     <t>Física Experimental I</t>
   </si>
   <si>
+    <t>Fenômenos Mecânicos; Fenômenos Térmicos; Funções de Várias Variáveis</t>
+  </si>
+  <si>
     <t>Física Experimental II</t>
   </si>
   <si>
+    <t>Física Experimental I; Fenômenos Eletromagnéticos</t>
+  </si>
+  <si>
     <t>Física Experimental III</t>
   </si>
   <si>
+    <t>Física Experimental II; Física Quântica; Óptica e Relatividade</t>
+  </si>
+  <si>
     <t>Física Experimental IV</t>
   </si>
   <si>
+    <t>Eletromagnetismo I; Óptica e Relatividade; Mecânica Quântica I; Variáveis Complexas e Aplicações; Análise de Fourier e Aplicações; Física Experimental III</t>
+  </si>
+  <si>
     <t>Física Quântica</t>
   </si>
   <si>
+    <t>Estrutura da Matéria; Fenômenos Mecânicos; Fenômenos Térmicos; Fenômenos Eletromagnéticos</t>
+  </si>
+  <si>
     <t>Físico-Química Experimental</t>
   </si>
   <si>
+    <t>Transformações Químicas; Funções de uma variável; Princípios de Termodinâmica; Termodinâmica Química</t>
+  </si>
+  <si>
     <t>Fisiologia Vegetal I</t>
   </si>
   <si>
     <t>Fisiologia Vegetal II</t>
   </si>
   <si>
-    <t>Funções de Uma Variável</t>
+    <t>Evolução e Diversidade de Plantas II; Genética II; Fisiologia Vegetal I</t>
   </si>
   <si>
     <t>Funções de Variás Variáveis</t>
   </si>
   <si>
+    <t>Geometria Analitica; Funções de Uma Variável</t>
+  </si>
+  <si>
     <t>Fundamentos da Biotecnologia</t>
   </si>
   <si>
@@ -280,6 +592,9 @@
     <t>Fundamentos de Química</t>
   </si>
   <si>
+    <t>Estrutura da Matéria; Transformações químicas</t>
+  </si>
+  <si>
     <t>Fundamentos de Reações Orgânicas</t>
   </si>
   <si>
@@ -289,15 +604,18 @@
     <t>Genética II</t>
   </si>
   <si>
+    <t>Biologia Celular; Genética I</t>
+  </si>
+  <si>
     <t>Genômica e Pós-Genômica</t>
   </si>
   <si>
+    <t>Biologia Celular; Biologia Molecular e Biotecnologia</t>
+  </si>
+  <si>
     <t>Geologia e Paleontologia</t>
   </si>
   <si>
-    <t>Geometria Analítica</t>
-  </si>
-  <si>
     <t>Geometria Diferencial</t>
   </si>
   <si>
@@ -310,6 +628,9 @@
     <t>Instrumentação e Controle</t>
   </si>
   <si>
+    <t>Introdução às Equações Diferenciais Ordinárias; Circuitos Elétricos e Fotônica</t>
+  </si>
+  <si>
     <t>Inteligência Artificial</t>
   </si>
   <si>
@@ -319,12 +640,12 @@
     <t>Introdução à Bioinformática</t>
   </si>
   <si>
+    <t>Biologia Celular; Bioquímica: estrutura, propriedade e funções de biomoléculas</t>
+  </si>
+  <si>
     <t>Introdução à Filosofia da Mente</t>
   </si>
   <si>
-    <t>Introdução à Neurociência</t>
-  </si>
-  <si>
     <t>Introdução à Probabilidade e à Estatística</t>
   </si>
   <si>
@@ -337,16 +658,25 @@
     <t>Laboratório de Bioprocessos</t>
   </si>
   <si>
+    <t>Biologia Molecular e Biotecnologia; Biologia Celular; Genética II; Bioquímica: estrutura, propriedades e funções de biomoléculas; Farmacologia; Proteínas Recombinantes</t>
+  </si>
+  <si>
     <t>Laboratório de Máquinas Elétricas</t>
   </si>
   <si>
+    <t>Máquinas Elétricas</t>
+  </si>
+  <si>
     <t>Ligações Químicas</t>
   </si>
   <si>
+    <t>Estrutura da Matéria; Transformações químicas; Fundamentos de Química</t>
+  </si>
+  <si>
     <t>Linguagens Formais e Autômatos</t>
   </si>
   <si>
-    <t>Máquinas Elétricas</t>
+    <t>Matemática Discreta II; Matemática Discreta I; Funções de Uma Variável; Análise de Algoritmos II; Análise de Algoritmos I; Algoritmos em Grafos; Algoritmos e Estruturas de Dados II; Algoritmos e Estruturas de Dados I; Programação Estruturada</t>
   </si>
   <si>
     <t>Matemática Discreta</t>
@@ -355,45 +685,72 @@
     <t>Matemática Discreta II</t>
   </si>
   <si>
+    <t>Funções de Uma Variável; Matemática Discreta I</t>
+  </si>
+  <si>
     <t>Materiais e Suas Propriedades</t>
   </si>
   <si>
     <t>Mecânica Clássica I</t>
   </si>
   <si>
+    <t>Fenômenos Mecânicos; Funções de Várias Variáveis</t>
+  </si>
+  <si>
     <t>Mecânica dos Fluidos I</t>
   </si>
   <si>
+    <t>Fenômenos Térmicos; Funções de Uma Variável; Funções de Várias Variáveis</t>
+  </si>
+  <si>
     <t>Mecânica dos Sólidos I</t>
   </si>
   <si>
     <t>Mecânica Quântica I</t>
   </si>
   <si>
+    <t>Física Quântica; Funções de Várias Variáveis; Introdução às equações diferenciais; Álgebra Linear</t>
+  </si>
+  <si>
     <t>Mecânica Quântica II</t>
   </si>
   <si>
     <t>Mecanismos de Reações Orgânicas</t>
   </si>
   <si>
+    <t>Transformações Químicas; Fundamentos de Reações Orgânicas</t>
+  </si>
+  <si>
     <t>Metodologia e Escrita Científica p Computação</t>
   </si>
   <si>
     <t>Métodos de Análise em Química Orgânica</t>
   </si>
   <si>
+    <t>Funções e Reações Orgânicas; Mecanismos de Reações Orgânicas; Química Orgânica Experimental</t>
+  </si>
+  <si>
     <t>Métodos Experimentais em Engenharia</t>
   </si>
   <si>
+    <t>Introdução às Equações Diferenciais Ordinárias; Introdução à Probabilidade e à Estatística</t>
+  </si>
+  <si>
     <t>Microbiologia</t>
   </si>
   <si>
+    <t>Biodiversidade: Interações entre organismos e ambiente; Biologia Celular; Bioquímica Funcional</t>
+  </si>
+  <si>
     <t>Modelagem de Banco de Dados</t>
   </si>
   <si>
     <t>Morfofisiologia Animal Comparada</t>
   </si>
   <si>
+    <t>Zoologia de Invertebrados I; Zoologia de Vertebrados; Evolução</t>
+  </si>
+  <si>
     <t>Nanobiotecnologia</t>
   </si>
   <si>
@@ -406,25 +763,43 @@
     <t>Neurobiologia Molecular e Celular</t>
   </si>
   <si>
+    <t>Introdução à Neurociência; Biofísica de Membranas</t>
+  </si>
+  <si>
     <t>Neurociência Teórica e Computacional</t>
   </si>
   <si>
+    <t>Natureza da Informação; Introdução às Equações Diferenciais Ordinárias; Biofísica de Membranas; Introdução à Neurociência</t>
+  </si>
+  <si>
     <t>Neuroetologia</t>
   </si>
   <si>
+    <t>Introdução a Neurociência; Neuroanatomia; Neuropsicofarmacologia; Psicologia experimental; Neurociência teórica e computacional</t>
+  </si>
+  <si>
     <t>Neuropsicofarmacologia</t>
   </si>
   <si>
+    <t>Introdução a Neurociência; Biofísica de Membranas; Neuroanatomia; Neurobiologia Molecular e Celular</t>
+  </si>
+  <si>
     <t>Números Reais e Sequências</t>
   </si>
   <si>
+    <t>Funções de uma Variável; Matemática Discreta</t>
+  </si>
+  <si>
     <t>Óptica e Relatividade</t>
   </si>
   <si>
+    <t>Fenômenos Mecânicos; Funções de Várias Variáveis; Geometria Analítica</t>
+  </si>
+  <si>
     <t>Otimização Linear</t>
   </si>
   <si>
-    <t>Práticas de Ecologia</t>
+    <t>Álgebra Linear; Funções de Várias Variáveis; Processamento da Informação; Matemática Discreta</t>
   </si>
   <si>
     <t>Princípios de Administração</t>
@@ -433,45 +808,72 @@
     <t>Princípios de Fisiologia para Biotecnologia</t>
   </si>
   <si>
+    <t>Transformações Químicas; Bioquímica: estrutura, propriedade e funções de biomoléculas; Biologia Celular; Genética I</t>
+  </si>
+  <si>
     <t>Princípios de Termodinâmica</t>
   </si>
   <si>
+    <t>Fenômenos Térmicos; Funções de Várias Variáveis</t>
+  </si>
+  <si>
     <t>Probabilidade</t>
   </si>
   <si>
-    <t>Processamento da Informação</t>
+    <t>Cálculo de Probabilidade; Teoria da Medida e Integração</t>
   </si>
   <si>
     <t>Processamento de Sinais Neurais</t>
   </si>
   <si>
+    <t>Processamento da Informação; Introdução à Neurociência</t>
+  </si>
+  <si>
     <t>Processamento Digital de Sinais</t>
   </si>
   <si>
+    <t>Transformadas em Sinais e Sistemas Lineares</t>
+  </si>
+  <si>
     <t>Programação Estruturada</t>
   </si>
   <si>
     <t>Programação Funcional</t>
   </si>
   <si>
+    <t>Algoritmos e Estrutura de Dados I; Programação Estruturada; Processamento da Informação</t>
+  </si>
+  <si>
     <t>Programação Orientada a Objetos</t>
   </si>
   <si>
     <t>Progressos e Métodos em Neurociência</t>
   </si>
   <si>
+    <t>Introdução à Neurociência; Neurobiologia Molecular e Celular</t>
+  </si>
+  <si>
     <t>Projeto Dirigido</t>
   </si>
   <si>
+    <t>Bases Matemáticas; Bases Computacionais da Ciência; Base Experimental das Ciências Naturais; Estrutura da Matéria; Evolução e Diversificação da Vida na Terra; Transformações Químicas; Biodiversidade: Interações entre organismos e ambiente; Bioquímica: estrutura, propriedade e funções de biomoléculas</t>
+  </si>
+  <si>
     <t>Proteínas Recombinantes</t>
   </si>
   <si>
+    <t>Biologia Molecular e Biotecnologia; Bioquímica: estrutura, propriedades e funções de biomoléculas; Microbiologia</t>
+  </si>
+  <si>
     <t>Psicologia Cognitiva</t>
   </si>
   <si>
     <t>Psicologia Experimental</t>
   </si>
   <si>
+    <t>Psicologia Cognitiva; Base Experimental das Ciências Naturais</t>
+  </si>
+  <si>
     <t>Química Analítica Clássica I</t>
   </si>
   <si>
@@ -481,28 +883,49 @@
     <t>Química de Coordenação</t>
   </si>
   <si>
+    <t>Estrutura da Matéria; Transformações químicas; Fundamentos de Química; Ligações Químicas; Química dos Elementos</t>
+  </si>
+  <si>
     <t>Química de Macromoléculas Biológicas</t>
   </si>
   <si>
+    <t>Transformações Químicas; Bioquímica: estrutura, propriedade e funções de biomoléculas; Química Analítica Clássica I; Química Analítica Clássica II</t>
+  </si>
+  <si>
     <t>Química dos Elementos</t>
   </si>
   <si>
+    <t>Estrutura da Matéria; Transformações químicas; Fundamentos de Química; Ligações Químicas</t>
+  </si>
+  <si>
     <t>Química Orgânica Experimental</t>
   </si>
   <si>
+    <t>Transformações Químicas; Fundamentos de Reações Orgânicas; Métodos de Análise em Química Orgânica</t>
+  </si>
+  <si>
     <t>Redes de Computadores</t>
   </si>
   <si>
     <t>Segurança de Dados</t>
   </si>
   <si>
+    <t>Redes de Computadores; Programação Estruturada; Processamento da Informação</t>
+  </si>
+  <si>
     <t>Segurança e Regulamentação em Biotecnologia</t>
+  </si>
+  <si>
+    <t>Biologia Molecular e Biotecnologia; Bioquímica: estrutura, propriedades e funções de biomoléculas; Farmacologia</t>
   </si>
   <si>
     <t xml:space="preserve">Sistemas 
 Microprocessados </t>
   </si>
   <si>
+    <t>Eletrônica Digital; Dispositivos Eletrônicos</t>
+  </si>
+  <si>
     <t>Sistemas de Controle I</t>
   </si>
   <si>
@@ -512,12 +935,21 @@
     <t>Sistemas Digitais</t>
   </si>
   <si>
+    <t>Circuitos Digitais; Natureza da Informação; Fenômenos Eletromagnéticos</t>
+  </si>
+  <si>
     <t>Sistemas Distribuídos</t>
   </si>
   <si>
+    <t>Redes de Computadores; Algoritmos e Estruturas de Dados II; Algoritmos e Estruturas de Dados I;Programação Estruturada; Processamento da Informação; Programação Orientada a Objetos; Sistemas Operacionais; Arquitetura de Computadores; Sistemas Digitais</t>
+  </si>
+  <si>
     <t>Sistemas Operacionais</t>
   </si>
   <si>
+    <t>Arquitetura de Computadores; Sistemas Digitais; Circuitos Digitais; Natureza da Informação; Fenômenos Eletromagnéticos; Algoritmos e Estruturas de Dados II; Algoritmos e Estruturas de Dados I; Programação Estruturada; Processamento da Informação</t>
+  </si>
+  <si>
     <t>Sistemática e Biogeografia</t>
   </si>
   <si>
@@ -527,12 +959,21 @@
     <t>Trabalho de Conclusão de Curso em Ciência da Computação</t>
   </si>
   <si>
+    <t>Álgebra Linear; Algoritmos e Estruturas de Dados I; Algoritmos e Estruturas de Dados II; Algoritmos em Grafos; Análise de Algoritmos I; Análise de Algoritmos II; Arquitetura de Computadores; Circuitos Digitais; Compiladores e Interpretadores; Computação Gráfica; Computadores, Ética e Sociedade; Engenharia de Software; Inteligência Artificial; Interação Humano-Computador; Linguagens Formais e Autômatos; Matemática Discreta; Matemática Discreta II; Metodologia e Escrita Científica para Ciência da Computação; Modelagem de Banco de Dados; Programação Estruturada; Programação Funcional; Programação Orientada a Objetos; Redes de Computadores; Segurança de Dados; Sistemas Digitais; Sistemas Distribuídos; Sistemas Operacionais</t>
+  </si>
+  <si>
     <t>Técnicas Analíticas de Separação</t>
   </si>
   <si>
+    <t>Química Analítica Clássica I; Química Analítica Clássica II; Espectroanalítica Molecular e Atômica</t>
+  </si>
+  <si>
     <t>Tecnologia de Fermentações</t>
   </si>
   <si>
+    <t>Bioquímica: estrutura, propriedades e funções de biomoléculas</t>
+  </si>
+  <si>
     <t>Teoria Aritmética dos Números</t>
   </si>
   <si>
@@ -545,6 +986,9 @@
     <t>Teoria de Corpos</t>
   </si>
   <si>
+    <t>Álgebra Linear Avançada; Teoria de Anéis; Teoria de Grupos</t>
+  </si>
+  <si>
     <t>Teoria de Grupos</t>
   </si>
   <si>
@@ -554,361 +998,934 @@
     <t>Termodinâmica Química</t>
   </si>
   <si>
+    <t>Princípios de Termodinâmica; Transformações Químicas; Fenômenos Térmicos; Funções de uma variável</t>
+  </si>
+  <si>
     <t>Tópicos Especiais em Química Orgânica</t>
   </si>
   <si>
+    <t>Transformações Químicas; Fundamentos em Reações Orgânicas; Mecanismos de Reações Orgânicas</t>
+  </si>
+  <si>
     <t>Topologia</t>
   </si>
   <si>
     <t>Trabalho de Conclusão de Curso de Biotecnologia</t>
   </si>
   <si>
+    <t>Bioética; Fundamentos da Biotecnologia; Biologia Celular; Princípios de Fisiologia para Biotecnologia; Genética I; Bioestatística; Bioquímica Funcional; Introdução à Bioinformática; Nanobiotecnologia; Microbiologia; Segurança e Regulamentação em Biotecnologia; Genética II; Biotecnologia Vegetal; Proteínas Recombinantes; Genômica e Pós-genômica; Laboratório de Bioprocessos; Engenharia Metabólica; Tecnologia de Fermentações; Biotecnologia Animal; Biotecnologia Humana; Farmacologia; Enzimologia e Biocatálise; Biologia Sintética; Empreendedorismo e Planejamento de Projetos em Biotecnologia</t>
+  </si>
+  <si>
     <t>Trabalho de Conclusão de Curso em Química</t>
   </si>
   <si>
+    <t>Cinética Química; Eletroanalítica e Instrumentação em Química; Eletroquímica; Espectroanalítica Molecular e
+Atômica; Estrutura da Matéria Avançada; Físico-Química Experimental; Fundamentos de Química; Fundamentos de Reações Orgânicas; Ligações Químicas; Mecanismos de Reações
+Orgânicas; Métodos de Análise em Química Orgânica; Princípios de Termodinâmica; Química Analítica Clássica I; Química Analítica Clássica II; Química de Coordenação; Química de Macromoléculas Biológicas; Química dos Elementos; Química Orgânica Experimental; Técnicas Analíticas de Separação; Termodinâmica Química; Tópicos Especiais em Química Orgânica</t>
+  </si>
+  <si>
     <t>Transformações Químicas</t>
   </si>
   <si>
-    <t>Transformadas em Sinais e Sistemas Lineares</t>
-  </si>
-  <si>
     <t>Variáveis Complexas e Aplicações</t>
   </si>
   <si>
     <t>Zoologia de Ecdysozoa</t>
   </si>
   <si>
+    <t>Sistemática e Biogeografia; Zoologia de Invertebrados I</t>
+  </si>
+  <si>
     <t>Zoologia de Vertebrados</t>
   </si>
   <si>
+    <t>Sistemática e Biogeografia; Zoologia de Ecdysozoa</t>
+  </si>
+  <si>
     <t>Zoologia: Origem e Diversificação de Metazoa</t>
   </si>
   <si>
-    <t>Álgebra Linear; Matemática Discreta</t>
-  </si>
-  <si>
-    <t>Programação Estruturada; Processamento da Informação</t>
-  </si>
-  <si>
-    <t>Algoritmos e Estruturas de Dados I; Programação Estruturada; Processamento da Informação</t>
-  </si>
-  <si>
-    <t>Natureza da Informação; Funções de Uma Variável; Algoritmos e Estruturas de Dados I; Algoritmos e Estruturas de Dados II; Programação Estruturada; Matemática Discreta I; Matemática Discreta II</t>
-  </si>
-  <si>
-    <t>Matemática Discreta II; Matemática Discreta I; Algoritmos em Grafos; Algoritmos e Estruturas de Dados I; Algoritmos e Estruturas de Dados II; Programação Estruturada; Processamento da Informação; Funções de Uma Variável</t>
-  </si>
-  <si>
-    <t>Análise de Algoritmos I; Algoritmos em Grafos; Matemática Discreta I; Matemática Discreta II; Algoritmos e Estruturas de Dados I; Algoritmos e Estruturas de Dados II; Programação Estruturada; Processamento da Informação; Funções de Uma Variável</t>
-  </si>
-  <si>
-    <t>Funções de Várias Variáveis; Variáveis Complexas e Aplicações</t>
-  </si>
-  <si>
-    <t>Álgebra Linear; Cálculo de Probabilidade; Introdução à Inferência Estatística</t>
-  </si>
-  <si>
-    <t>Álgebra Linear; Análise Real I</t>
-  </si>
-  <si>
-    <t>Álgebra Linear Avançada; Análise Real II; Análise no Rn I</t>
-  </si>
-  <si>
-    <t>Introdução às Equações Diferenciais Ordinárias; Números Reais e Sequências</t>
-  </si>
-  <si>
-    <t>Álgebra Linear; Análise Real II; Processamento da Informação</t>
-  </si>
-  <si>
-    <t>Sistemas Digitais; Circuitos Digitais; Natureza da Informação; Fenômenos Eletromagnéticos; Algoritmos e Estruturas de Dados I; Programação Estruturada; Processamento da Informação</t>
-  </si>
-  <si>
-    <t>Computação Científica Aplicada a Problemas Biológicos</t>
-  </si>
-  <si>
-    <t>Introdução à Neurociência; ou Morfofisiologia Humana I</t>
-  </si>
-  <si>
-    <t>Genética II; Bioquímica: estrutura, propriedade e funções de biomoléculas</t>
-  </si>
-  <si>
-    <t>Transformações Químicas; Bioquímica: estrutura, propriedade e funções de biomoléculas; Biologia Celular</t>
-  </si>
-  <si>
-    <t>Estrutura da Matéria; Transformações Químicas</t>
-  </si>
-  <si>
-    <t>Biologia Molecular e Biotecnologia; Biologia celular</t>
-  </si>
-  <si>
-    <t>Biologia Molecular e Biotecnologia; Biologia celular; Imunologia</t>
-  </si>
-  <si>
-    <t>Genética I; Genética II; Fisiologia Vegetal I; Fisiologia Vegetal II</t>
-  </si>
-  <si>
-    <t>Funções de Várias Variáveis; Introdução à Probabilidade e à Estatística;Matemática Discreta</t>
-  </si>
-  <si>
-    <t>Funções de Uma Variável; Processamento da Informação</t>
-  </si>
-  <si>
-    <t>Funções de Várias Variáveis</t>
-  </si>
-  <si>
-    <t>Transformações Químicas; Funções de uma variável; Princípios de Termodinâmica</t>
-  </si>
-  <si>
-    <t>Natureza da Informação; Fenômenos Eletromagnéticos</t>
-  </si>
-  <si>
-    <t>Linguagens Formais e Autômatos; Matemática Discreta II; Matemática Discreta I; Funções de Uma Variável; Análise de Algoritmos II; Análise de Algoritmos I; Algoritmos em Grafos; Algoritmos e Estruturas de Dados II; Algoritmos e Estruturas de Dados I; Progr</t>
-  </si>
-  <si>
-    <t>Algoritmos e Estrutura de Dados I; Programação Estruturada; Processamento da Informação; Programação Orientada a Objetos; Geometria Analítica</t>
-  </si>
-  <si>
-    <t>Química Analítica Clássica I; Química Analítica Clássica II; Espectroanalítica Molecular e Atômica; Eletroquímica</t>
-  </si>
-  <si>
-    <t>Fenômenos Eletromagnéticos; Cálculo Vetorial e Tensorial</t>
-  </si>
-  <si>
-    <t>Circuitos Elétricos e Fotônica; Circuitos Elétricos I</t>
-  </si>
-  <si>
-    <t>Introdução à Biotecnologia</t>
-  </si>
-  <si>
-    <t>Programação Orientada a Objetos; Programação Estruturada; Processamento da Informação</t>
-  </si>
-  <si>
-    <t>Biologia Molecular e Biotecnologia; Bioquímica: estrutura, propriedades e funções de biomoléculas</t>
-  </si>
-  <si>
-    <t>Biologia Molecular e Biotecnologia; Biologia Celular; Genética II; Bioquímica: estrutura, propriedades e funções de biomoléculas; Farmacologia</t>
-  </si>
-  <si>
-    <t>Álgebra Linear Avançada; Análise no Rn I</t>
-  </si>
-  <si>
-    <t>Análise no Rn I; Análise Real II</t>
-  </si>
-  <si>
-    <t>Química Analítica Clássica I; Química analítica Clássica II</t>
-  </si>
-  <si>
-    <t>Fenômenos Eletromagnéticos; Funções de uma variável; Funções de Várias Variáveis; Transformações Químicas; Fundamentos de Química</t>
-  </si>
-  <si>
-    <t>Evolução e Diversificação da Vida na Terra; Sistemática e Biogeografia</t>
-  </si>
-  <si>
-    <t>Evolução e Diversificação da Vida na Terra; Sistemática e Biogeografia; Evolução e Diversidade de Plantas I</t>
-  </si>
-  <si>
-    <t>Bioquímica: estrutura, propriedade e funções de biomoléculas</t>
-  </si>
-  <si>
-    <t>Bases Matemáticas; Fenômenos Mecânicos; Funções de Uma Variável; Funções de Várias Variáveis; Geometria Analítica; Introdução às Equações Diferenciais Ordinárias</t>
-  </si>
-  <si>
-    <t>Geometria Analitica; Funções de Uma Variável; Bases Matemáticas</t>
-  </si>
-  <si>
-    <t>Estrutura da Matéria; Fenômenos Mecânicos; Funções de uma Variável</t>
-  </si>
-  <si>
-    <t>Fenômenos Mecânicos; Fenômenos Térmicos; Funções de Várias Variáveis</t>
-  </si>
-  <si>
-    <t>Física Experimental I; Fenômenos Eletromagnéticos</t>
-  </si>
-  <si>
-    <t>Física Experimental II; Física Quântica; Óptica e Relatividade</t>
-  </si>
-  <si>
-    <t>Eletromagnetismo I; Óptica e Relatividade; Mecânica Quântica I; Variáveis Complexas e Aplicações; Análise de Fourier e Aplicações; Física Experimental III</t>
-  </si>
-  <si>
-    <t>Estrutura da Matéria; Fenômenos Mecânicos; Fenômenos Térmicos; Fenômenos Eletromagnéticos</t>
-  </si>
-  <si>
-    <t>Transformações Químicas; Funções de uma variável; Princípios de Termodinâmica; Termodinâmica Química</t>
-  </si>
-  <si>
-    <t>Evolução e Diversidade de Plantas II; Genética II; Fisiologia Vegetal I</t>
-  </si>
-  <si>
-    <t>Geometria Analitica; Funções de Uma Variável</t>
-  </si>
-  <si>
-    <t>Estrutura da Matéria; Transformações químicas</t>
-  </si>
-  <si>
-    <t>Biologia Celular; Genética I</t>
-  </si>
-  <si>
-    <t>Biologia Celular; Biologia Molecular e Biotecnologia</t>
-  </si>
-  <si>
-    <t>Introdução às Equações Diferenciais Ordinárias; Circuitos Elétricos e Fotônica</t>
-  </si>
-  <si>
-    <t>Biologia Celular; Bioquímica:estrutura, propriedade e funções de biomoléculas</t>
-  </si>
-  <si>
-    <t>Biologia Molecular e Biotecnologia; Biologia Celular; Genética II; Bioquímica: estrutura, propriedades e funções de biomoléculas; Farmacologia; Proteínas Recombinantes</t>
-  </si>
-  <si>
-    <t>Estrutura da Matéria; Transformações químicas; Fundamentos de Química; Estrutura Atômica e Molecular Avançada</t>
-  </si>
-  <si>
-    <t>Matemática Discreta II; Matemática Discreta I; Funções de Uma Variável; Análise de Algoritmos II; Análise de Algoritmos I; Algoritmos em Grafos; Algoritmos e Estruturas de Dados II; Algoritmos e Estruturas de Dados I; Programação Estruturada; Processament</t>
-  </si>
-  <si>
-    <t>Funções de Uma Variável; Matemática Discreta I</t>
-  </si>
-  <si>
-    <t>Fenômenos Mecânicos; Funções de Várias Variáveis</t>
-  </si>
-  <si>
-    <t>Fenômenos Térmicos; Funções de Uma Variável; Funções de Várias Variáveis</t>
-  </si>
-  <si>
-    <t>Física Quântica; Funções de várias variáveis; Introdução às equações diferenciais; Algebra Linear</t>
-  </si>
-  <si>
-    <t>Transformações Químicas; Fundamentos de Reações Orgânicas</t>
-  </si>
-  <si>
-    <t>Funções e Reações Orgânicas; Mecanismos de Reações Orgânicas; Química Orgânica Experimental</t>
-  </si>
-  <si>
-    <t>Introdução às Equações Diferenciais Ordinárias; Introdução à Probabilidade e à Estatística</t>
-  </si>
-  <si>
-    <t>Biodiversidade: Interações entre organismos e ambiente; Biologia Celular; Bioquímica Funcional</t>
-  </si>
-  <si>
-    <t>Zoologia de Invertebrados I; Zoologia de Invertebrados II; Zoologia de Vertebrados; Evolução</t>
-  </si>
-  <si>
-    <t>Introdução à Neurociência ou Morfofisiologia Humana I</t>
-  </si>
-  <si>
-    <t>Introdução à Neurociência ou Morfofisiologia Humana I; Biofísica de Membrana</t>
-  </si>
-  <si>
-    <t>Natureza da Informação; Introdução às Equações Diferenciais Ordinárias; Biofísica de Membranas; Introdução à Neurociência ou Morfofisiologia Humana I</t>
-  </si>
-  <si>
-    <t>Introdução a Neurociência ou Morfofisiologia Humana I; Neuroanatomia; Neuropsicofarmacologia; Psicologia experimental; Neurociência teórica e computacional</t>
-  </si>
-  <si>
-    <t>Introdução a Neurociência ou Morfofisiologia Humana I; Biofísica de membranas; Neuroanatomia; Neurobiologia Molecular e Celular</t>
-  </si>
-  <si>
-    <t>Funções de uma Variável; Matemática Discreta</t>
-  </si>
-  <si>
-    <t>Fenômenos Mecânicos; Funções de Várias Variáveis; Geometria Analítica</t>
-  </si>
-  <si>
-    <t>Álgebra Linear; Funções de Várias Variáveis; Processamento da Informação; Matemática Discreta</t>
-  </si>
-  <si>
-    <t>Transformações Químicas; Bioquímica: Estrutura, Propriedade e Funções de Biomoléculas; Biologia Celular; Genética I</t>
-  </si>
-  <si>
-    <t>Fenômenos Térmicos; Funções de Várias Variáveis</t>
-  </si>
-  <si>
-    <t>Cálculo de Probabilidade; Teoria da Medida e Integração</t>
-  </si>
-  <si>
-    <t>Processamento da Informação; Introdução à Neurociência</t>
-  </si>
-  <si>
-    <t>Algoritmos e Estrutura de Dados I; Programação Estruturada; Processamento da Informação</t>
-  </si>
-  <si>
-    <t>Introdução à Neurociência ou Morfofisiologia Humana I; Neurobiologia Molecular e Celular</t>
-  </si>
-  <si>
-    <t>Bases Matemáticas; Bases Computacionais da Ciência; Base Experimental das Ciências Naturais; Estrutura da Matéria; Evolução e Diversificação da Vida na Terra; Transformações Químicas; Biodiversidade: Interações entre organismos e ambiente; Bioquímica: est</t>
-  </si>
-  <si>
-    <t>Biologia Molecular e Biotecnologia; Bioquímica: estrutura, propriedades e funções de biomoléculas; Microbiologia</t>
-  </si>
-  <si>
-    <t>Psicologia Cognitiva; Base Experimental das Ciências Naturais</t>
-  </si>
-  <si>
-    <t>Estrutura da Matéria; Transformações químicas; Fundamentos de Química; Ligações Químicas; Química dos Elementos</t>
-  </si>
-  <si>
-    <t>Transformações Químicas; Bioquímica: estrutura, propriedade e funções de biomoléculas; Química Analítica Clássica I; Química Analítica Clássica II</t>
-  </si>
-  <si>
-    <t>Estrutura da Matéria; Transformações químicas; Fundamentos de Química; Ligações Químicas</t>
-  </si>
-  <si>
-    <t>Transformações Químicas; Fundamentos de Reações Orgânicas; Métodos de Análise em Química Orgânica</t>
-  </si>
-  <si>
-    <t>Redes de Computadores; Programação Estruturada; Processamento da Informação</t>
-  </si>
-  <si>
-    <t>Biologia Molecular e Biotecnologia; Bioquímica: estrutura, propriedades e funções de biomoléculas; Farmacologia</t>
-  </si>
-  <si>
-    <t>Eletrônica Digital; Dispositivos Eletrônicos</t>
-  </si>
-  <si>
-    <t>Circuitos Digitais; Natureza da Informação; Fenômenos Eletromagnéticos</t>
-  </si>
-  <si>
-    <t>Redes de Computadores; Algoritmos e Estruturas de Dados II; Algoritmos e Estruturas de Dados I;Programação Estruturada; Processamento da Informação; Programação Orientada a Objetos; Sistemas Operacionais; Arquitetura de Computadores; Sistemas Digitais; C</t>
-  </si>
-  <si>
-    <t>Arquitetura de Computadores; Sistemas Digitais; Circuitos Digitais; Natureza da Informação; Fenômenos Eletromagnéticos; Algoritmos e Estruturas de Dados II; Algoritmos e Estruturas de Dados I; Programação Estruturada; Processamento da Informação</t>
-  </si>
-  <si>
-    <t>Todas as disciplinas obrigatórias do Bacharelado em Ciência da Computação</t>
-  </si>
-  <si>
-    <t>Química Analítica Clássica I; Química Analítica Clássica II; Espectroanalítica Molecular e Atômica</t>
-  </si>
-  <si>
-    <t>Bioquímica: estrutura, propriedades e funções de biomoléculas</t>
-  </si>
-  <si>
-    <t>Álgebra Linear Avançada; Teoria de Anéis; Teoria de Grupos</t>
-  </si>
-  <si>
-    <t>Princípios de Termodinâmica; Transformações Químicas; Fenômenos Térmicos; Funções de uma variável</t>
-  </si>
-  <si>
-    <t>Transformações Químicas; Fundamentos em Reações Orgânicas; Mecanismos de Reações Orgânicas</t>
-  </si>
-  <si>
-    <t>Todas as disciplinas obrigatórias do Bacharelado em Biotecnologia</t>
-  </si>
-  <si>
-    <t>Todas as disciplinas obrigatórias do Bacharelado em Química</t>
-  </si>
-  <si>
-    <t>Sistemática e Biogeografia; Zoologia de Invertebrados I</t>
-  </si>
-  <si>
-    <t>Sistemática e Biogeografia; Zoologia de Ecdysozoa</t>
+    <t>Classes MAIÚSCULA</t>
+  </si>
+  <si>
+    <t>Dependencies MAIÚSCULA</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA LINEAR</t>
+  </si>
+  <si>
+    <t>GEOMETRIA ANALÍTICA</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA LINEAR AVANÇADA</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA LINEAR; MATEMÁTICA DISCRETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALGORITMOS E ESTRUTURA DE DADOS I </t>
+  </si>
+  <si>
+    <t>PROGRAMAÇÃO ESTRUTURADA; PROCESSAMENTO DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>ALGORITMOS E ESTRUTURAS DE DADOS I</t>
+  </si>
+  <si>
+    <t>ALGORITMOS E ESTRUTURAS DE DADOS II</t>
+  </si>
+  <si>
+    <t>ALGORITMOS E ESTRUTURAS DE DADOS I; PROGRAMAÇÃO ESTRUTURADA; PROCESSAMENTO DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>ALGORITMOS EM GRAFOS</t>
+  </si>
+  <si>
+    <t>NATUREZA DA INFORMAÇÃO; FUNÇÕES DE UMA VARIÁVEL; ALGORITMOS E ESTRUTURAS DE DADOS I; ALGORITMOS E ESTRUTURAS DE DADOS II; PROGRAMAÇÃO ESTRUTURADA; MATEMÁTICA DISCRETA I; MATEMÁTICA DISCRETA II</t>
+  </si>
+  <si>
+    <t>ANÁLISE DE ALGORITMOS I</t>
+  </si>
+  <si>
+    <t>MATEMÁTICA DISCRETA II; MATEMÁTICA DISCRETA I; ALGORITMOS EM GRAFOS; ALGORITMOS E ESTRUTURAS DE DADOS I; ALGORITMOS E ESTRUTURAS DE DADOS II; PROGRAMAÇÃO ESTRUTURADA; PROCESSAMENTO DA INFORMAÇÃO; FUNÇÕES DE UMA VARIÁVEL</t>
+  </si>
+  <si>
+    <t>ANÁLISE DE ALGORITMOS II</t>
+  </si>
+  <si>
+    <t>ANÁLISE DE ALGORITMOS I; ALGORITMOS EM GRAFOS; MATEMÁTICA DISCRETA I; MATEMÁTICA DISCRETA II; ALGORITMOS E ESTRUTURAS DE DADOS I; ALGORITMOS E ESTRUTURAS DE DADOS II; PROGRAMAÇÃO ESTRUTURADA; PROCESSAMENTO DA INFORMAÇÃO; FUNÇÕES DE UMA VARIÁVEL</t>
+  </si>
+  <si>
+    <t>ANÁLISE DE FOURIER E APLICAÇÕES</t>
+  </si>
+  <si>
+    <t>FUNÇÕES DE VÁRIAS VARIÁVEIS; VARIÁVEIS COMPLEXAS E APLICAÇÕES</t>
+  </si>
+  <si>
+    <t>ANÁLISE DE REGRESSÃO</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA LINEAR; CÁLCULO DE PROBABILIDADE; INTRODUÇÃO À INFERÊNCIA ESTATÍSTICA</t>
+  </si>
+  <si>
+    <t>ANÁLISE NO RN I</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA LINEAR; ANÁLISE REAL I</t>
+  </si>
+  <si>
+    <t>ANÁLISE NO RN II</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA LINEAR AVANÇADA; ANÁLISE REAL II; ANÁLISE NO RN I</t>
+  </si>
+  <si>
+    <t>ANÁLISE REAL I</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO ÀS EQUAÇÕES DIFERENCIAIS ORDINÁRIAS; NÚMEROS REAIS E SEQUÊNCIAS</t>
+  </si>
+  <si>
+    <t>ANÁLISE REAL II</t>
+  </si>
+  <si>
+    <t>APROXIMAÇÃO TEÓRICA E NUMÉRICA I</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA LINEAR; ANÁLISE REAL II; PROCESSAMENTO DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>ARQUITETURA DE COMPUTADORES</t>
+  </si>
+  <si>
+    <t>SISTEMAS DIGITAIS; CIRCUITOS DIGITAIS; NATUREZA DA INFORMAÇÃO; FENÔMENOS ELETROMAGNÉTICOS; ALGORITMOS E ESTRUTURAS DE DADOS I; PROGRAMAÇÃO ESTRUTURADA; PROCESSAMENTO DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>BASE EXPERIMENTAL DAS CIÊNCIAS NATURAIS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>BASES COMPUTACIONAIS DA CIÊNCIA</t>
+  </si>
+  <si>
+    <t>BASES EPISTEMOLÓGICAS DA CIÊNCIA MODERNA</t>
+  </si>
+  <si>
+    <t>BASES MATEMÁTICAS</t>
+  </si>
+  <si>
+    <t>BIODIVERSIDADE: INTERAÇÕES ENTRE ORGANISMOS E AMBIENTE</t>
+  </si>
+  <si>
+    <t>BIOESTATÍSTICA</t>
+  </si>
+  <si>
+    <t>COMPUTAÇÃO CIENTÍFICA APLICADA A PROBLEMAS BIOLÓGICOS</t>
+  </si>
+  <si>
+    <t>BIOÉTICA</t>
+  </si>
+  <si>
+    <t>BIOFÍSICA DE MEMBRANAS</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO À NEUROCIÊNCIA</t>
+  </si>
+  <si>
+    <t>BIOLOGIA CELULAR</t>
+  </si>
+  <si>
+    <t>EVOLUÇÃO E DIVERSIFICAÇÃO DA VIDA NA TERRA</t>
+  </si>
+  <si>
+    <t>BIOLOGIA SINTÉTICA</t>
+  </si>
+  <si>
+    <t>GENÉTICA II; BIOQUÍMICA: ESTRUTURA, PROPRIEDADE E FUNÇÕES DE BIOMOLÉCULAS</t>
+  </si>
+  <si>
+    <t>BIOQUÍMICA FUNCIONAL</t>
+  </si>
+  <si>
+    <t>TRANSFORMAÇÕES QUÍMICAS; BIOQUÍMICA: ESTRUTURA, PROPRIEDADE E FUNÇÕES DE BIOMOLÉCULAS; BIOLOGIA CELULAR</t>
+  </si>
+  <si>
+    <t>BIOQUÍMICA: ESTRUTURA, PROPRIEDADE E FUNÇÕES DE BIOMOLÉCULAS</t>
+  </si>
+  <si>
+    <t>ESTRUTURA DA MATÉRIA; TRANSFORMAÇÕES QUÍMICAS</t>
+  </si>
+  <si>
+    <t>BIOTECNOLOGIA ANIMAL</t>
+  </si>
+  <si>
+    <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA; BIOLOGIA CELULAR</t>
+  </si>
+  <si>
+    <t>BIOTECNOLOGIA HUMANA</t>
+  </si>
+  <si>
+    <t>BIOTECNOLOGIA VEGETAL</t>
+  </si>
+  <si>
+    <t>GENÉTICA I; GENÉTICA II; FISIOLOGIA VEGETAL I; FISIOLOGIA VEGETAL II</t>
+  </si>
+  <si>
+    <t>CÁLCULO DE PROBABILIDADE</t>
+  </si>
+  <si>
+    <t>FUNÇÕES DE VÁRIAS VARIÁVEIS; INTRODUÇÃO À PROBABILIDADE E À ESTATÍSTICA;MATEMÁTICA DISCRETA</t>
+  </si>
+  <si>
+    <t>CÁLCULO NUMÉRICO</t>
+  </si>
+  <si>
+    <t>FUNÇÕES DE UMA VARIÁVEL; PROCESSAMENTO DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>CÁLCULO VETORIAL E TENSORIAL</t>
+  </si>
+  <si>
+    <t>FUNÇÕES DE VÁRIAS VARIÁVEIS</t>
+  </si>
+  <si>
+    <t>CIÊNCIA TECNOLOGIA E SOCIEDADE</t>
+  </si>
+  <si>
+    <t>CINÉTICA QUÍMICA</t>
+  </si>
+  <si>
+    <t>TRANSFORMAÇÕES QUÍMICAS; FUNÇÕES DE UMA VARIÁVEL; PRINCÍPIOS DE TERMODINÂMICA</t>
+  </si>
+  <si>
+    <t>CIRCUITOS DIGITAIS</t>
+  </si>
+  <si>
+    <t>NATUREZA DA INFORMAÇÃO; FENÔMENOS ELETROMAGNÉTICOS</t>
+  </si>
+  <si>
+    <t>CIRCUITOS ELÉTRICOS E FOTÔNICA</t>
+  </si>
+  <si>
+    <t>FENÔMENOS ELETROMAGNÉTICOS</t>
+  </si>
+  <si>
+    <t>CIRCUITOS ELÉTRICOS I</t>
+  </si>
+  <si>
+    <t>CIRCUITOS ELÉTRICOS II</t>
+  </si>
+  <si>
+    <t>COMPILADORES E INTERPRETADORES</t>
+  </si>
+  <si>
+    <t>LINGUAGENS FORMAIS E AUTÔMATOS; MATEMÁTICA DISCRETA II; MATEMÁTICA DISCRETA I; FUNÇÕES DE UMA VARIÁVEL; ANÁLISE DE ALGORITMOS II; ANÁLISE DE ALGORITMOS I; ALGORITMOS EM GRAFOS; ALGORITMOS E ESTRUTURAS DE DADOS II; ALGORITMOS E ESTRUTURAS DE DADOS I</t>
+  </si>
+  <si>
+    <t>COMPUTAÇÃO GRÁFICA</t>
+  </si>
+  <si>
+    <t>ALGORITMOS E ESTRUTURA DE DADOS I; PROGRAMAÇÃO ESTRUTURADA; PROCESSAMENTO DA INFORMAÇÃO; PROGRAMAÇÃO ORIENTADA A OBJETOS; GEOMETRIA ANALÍTICA</t>
+  </si>
+  <si>
+    <t>COMPUTADORES, ÉTICA E SOCIEDADE</t>
+  </si>
+  <si>
+    <t>COMUNICAÇÃO CIENTÍFICA</t>
+  </si>
+  <si>
+    <t>COMUNICAÇÃO E REDES</t>
+  </si>
+  <si>
+    <t>PROCESSAMENTO DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>DESENHO UNIVERSAL E TECNOLOGIA ASSISTIVA</t>
+  </si>
+  <si>
+    <t>DISPOSITIVOS ELETRÔNICOS</t>
+  </si>
+  <si>
+    <t>ECOLOGIA COMPORTAMENTAL</t>
+  </si>
+  <si>
+    <t>ECOLOGIA VEGETAL</t>
+  </si>
+  <si>
+    <t>PRÁTICAS DE ECOLOGIA</t>
+  </si>
+  <si>
+    <t>ELETROANALÍTICA E INSTRUMENTAÇÃO EM QUÍMICA</t>
+  </si>
+  <si>
+    <t>QUÍMICA ANALÍTICA CLÁSSICA I; QUÍMICA ANALÍTICA CLÁSSICA II; ESPECTROANALÍTICA MOLECULAR E ATÔMICA; ELETROQUÍMICA</t>
+  </si>
+  <si>
+    <t>ELETROMAGNETISMO I</t>
+  </si>
+  <si>
+    <t>FENÔMENOS ELETROMAGNÉTICOS; CÁLCULO VETORIAL E TENSORIAL</t>
+  </si>
+  <si>
+    <t>ELETRÔNICA ANALÓGICA APLICADA</t>
+  </si>
+  <si>
+    <t>ELETRÔNICA DIGITAL</t>
+  </si>
+  <si>
+    <t>CIRCUITOS ELÉTRICOS E FOTÔNICA; CIRCUITOS ELÉTRICOS I</t>
+  </si>
+  <si>
+    <t>ELETROQUÍMICA</t>
+  </si>
+  <si>
+    <t>EMPREENDEDORISMO E PLANEJAMENTO DE PROJETOS EM BIOTECNOLOGIA</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO À BIOTECNOLOGIA</t>
+  </si>
+  <si>
+    <t>ENGENHARIA DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>PROGRAMAÇÃO ORIENTADA A OBJETOS; PROGRAMAÇÃO ESTRUTURADA; PROCESSAMENTO DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>ENGENHARIA ECONÔMICA</t>
+  </si>
+  <si>
+    <t>FUNÇÕES DE UMA VARIÁVEL</t>
+  </si>
+  <si>
+    <t>ENGENHARIA METABÓLICA</t>
+  </si>
+  <si>
+    <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA; BIOQUÍMICA: ESTRUTURA, PROPRIEDADES E FUNÇÕES DE BIOMOLÉCULAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENZIMOLOGIA E BIOCATÁLISE </t>
+  </si>
+  <si>
+    <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA; BIOLOGIA CELULAR; GENÉTICA II; BIOQUÍMICA: ESTRUTURA, PROPRIEDADES E FUNÇÕES DE BIOMOLÉCULAS; FARMACOLOGIA</t>
+  </si>
+  <si>
+    <t>EQUAÇÕES DIFERENCIAIS ORDINÁRIAS</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA LINEAR AVANÇADA; ANÁLISE NO RN I</t>
+  </si>
+  <si>
+    <t>EQUAÇÕES DIFERENCIAIS PARCIAIS</t>
+  </si>
+  <si>
+    <t>ANÁLISE NO RN I; ANÁLISE REAL II</t>
+  </si>
+  <si>
+    <t>ESPECTROANALÍTICA MOLECULAR E ATÔMICA</t>
+  </si>
+  <si>
+    <t>QUÍMICA ANALÍTICA CLÁSSICA I; QUÍMICA ANALÍTICA CLÁSSICA II</t>
+  </si>
+  <si>
+    <t>ESTRUTURA DA MATÉRIA</t>
+  </si>
+  <si>
+    <t>ESTRUTURA DA MATÉRIA AVANÇADA</t>
+  </si>
+  <si>
+    <t>FENÔMENOS ELETROMAGNÉTICOS; FUNÇÕES DE UMA VARIÁVEL; FUNÇÕES DE VÁRIAS VARIÁVEIS; TRANSFORMAÇÕES QUÍMICAS; FUNDAMENTOS DE QUÍMICA</t>
+  </si>
+  <si>
+    <t>ESTRUTURA E DINÂMICA SOCIAL</t>
+  </si>
+  <si>
+    <t>EVOLUÇÃO E DIVERSIDADE DE PLANTAS I</t>
+  </si>
+  <si>
+    <t>EVOLUÇÃO E DIVERSIFICAÇÃO DA VIDA NA TERRA; SISTEMÁTICA E BIOGEOGRAFIA</t>
+  </si>
+  <si>
+    <t>EVOLUÇÃO E DIVERSIDADE DE PLANTAS II</t>
+  </si>
+  <si>
+    <t>EVOLUÇÃO E DIVERSIFICAÇÃO DA VIDA NA TERRA; SISTEMÁTICA E BIOGEOGRAFIA; EVOLUÇÃO E DIVERSIDADE DE PLANTAS I</t>
+  </si>
+  <si>
+    <t>FARMACOLOGIA</t>
+  </si>
+  <si>
+    <t>FENÔMENOS DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t>FENÔMENOS TÉRMICOS</t>
+  </si>
+  <si>
+    <t>BASES MATEMÁTICAS; FENÔMENOS MECÂNICOS; FUNÇÕES DE UMA VARIÁVEL; FUNÇÕES DE VÁRIAS VARIÁVEIS; GEOMETRIA ANALÍTICA; INTRODUÇÃO ÀS EQUAÇÕES DIFERENCIAIS ORDINÁRIAS</t>
+  </si>
+  <si>
+    <t>FENÔMENOS MECÂNICOS</t>
+  </si>
+  <si>
+    <t>GEOMETRIA ANALITICA; FUNÇÕES DE UMA VARIÁVEL; BASES MATEMÁTICAS</t>
+  </si>
+  <si>
+    <t>ESTRUTURA DA MATÉRIA; FENÔMENOS MECÂNICOS; FUNÇÕES DE UMA VARIÁVEL</t>
+  </si>
+  <si>
+    <t>FÍSICA EXPERIMENTAL I</t>
+  </si>
+  <si>
+    <t>FENÔMENOS MECÂNICOS; FENÔMENOS TÉRMICOS; FUNÇÕES DE VÁRIAS VARIÁVEIS</t>
+  </si>
+  <si>
+    <t>FÍSICA EXPERIMENTAL II</t>
+  </si>
+  <si>
+    <t>FÍSICA EXPERIMENTAL I; FENÔMENOS ELETROMAGNÉTICOS</t>
+  </si>
+  <si>
+    <t>FÍSICA EXPERIMENTAL III</t>
+  </si>
+  <si>
+    <t>FÍSICA EXPERIMENTAL II; FÍSICA QUÂNTICA; ÓPTICA E RELATIVIDADE</t>
+  </si>
+  <si>
+    <t>FÍSICA EXPERIMENTAL IV</t>
+  </si>
+  <si>
+    <t>ELETROMAGNETISMO I; ÓPTICA E RELATIVIDADE; MECÂNICA QUÂNTICA I; VARIÁVEIS COMPLEXAS E APLICAÇÕES; ANÁLISE DE FOURIER E APLICAÇÕES; FÍSICA EXPERIMENTAL III</t>
+  </si>
+  <si>
+    <t>FÍSICA QUÂNTICA</t>
+  </si>
+  <si>
+    <t>ESTRUTURA DA MATÉRIA; FENÔMENOS MECÂNICOS; FENÔMENOS TÉRMICOS; FENÔMENOS ELETROMAGNÉTICOS</t>
+  </si>
+  <si>
+    <t>FÍSICO-QUÍMICA EXPERIMENTAL</t>
+  </si>
+  <si>
+    <t>TRANSFORMAÇÕES QUÍMICAS; FUNÇÕES DE UMA VARIÁVEL; PRINCÍPIOS DE TERMODINÂMICA; TERMODINÂMICA QUÍMICA</t>
+  </si>
+  <si>
+    <t>FISIOLOGIA VEGETAL I</t>
+  </si>
+  <si>
+    <t>FISIOLOGIA VEGETAL II</t>
+  </si>
+  <si>
+    <t>EVOLUÇÃO E DIVERSIDADE DE PLANTAS II; GENÉTICA II; FISIOLOGIA VEGETAL I</t>
+  </si>
+  <si>
+    <t>FUNÇÕES DE VARIÁS VARIÁVEIS</t>
+  </si>
+  <si>
+    <t>GEOMETRIA ANALITICA; FUNÇÕES DE UMA VARIÁVEL</t>
+  </si>
+  <si>
+    <t>FUNDAMENTOS DA BIOTECNOLOGIA</t>
+  </si>
+  <si>
+    <t>FUNDAMENTOS DE DESENHO TÉCNICO</t>
+  </si>
+  <si>
+    <t>FUNDAMENTOS DE QUÍMICA</t>
+  </si>
+  <si>
+    <t>FUNDAMENTOS DE REAÇÕES ORGÂNICAS</t>
+  </si>
+  <si>
+    <t>GENÉTICA I</t>
+  </si>
+  <si>
+    <t>GENÉTICA II</t>
+  </si>
+  <si>
+    <t>BIOLOGIA CELULAR; GENÉTICA I</t>
+  </si>
+  <si>
+    <t>GENÔMICA E PÓS-GENÔMICA</t>
+  </si>
+  <si>
+    <t>BIOLOGIA CELULAR; BIOLOGIA MOLECULAR E BIOTECNOLOGIA</t>
+  </si>
+  <si>
+    <t>GEOLOGIA E PALEONTOLOGIA</t>
+  </si>
+  <si>
+    <t>GEOMETRIA DIFERENCIAL</t>
+  </si>
+  <si>
+    <t>GEOMETRIA DOS ESPAÇOS MÉTRICOS</t>
+  </si>
+  <si>
+    <t>INOVAÇÕES PARA ENGENHARIA</t>
+  </si>
+  <si>
+    <t>INSTRUMENTAÇÃO E CONTROLE</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO ÀS EQUAÇÕES DIFERENCIAIS ORDINÁRIAS; CIRCUITOS ELÉTRICOS E FOTÔNICA</t>
+  </si>
+  <si>
+    <t>INTELIGÊNCIA ARTIFICIAL</t>
+  </si>
+  <si>
+    <t>INTERAÇÃO HUMANO-COMPUTADOR</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO À BIOINFORMÁTICA</t>
+  </si>
+  <si>
+    <t>BIOLOGIA CELULAR; BIOQUÍMICA: ESTRUTURA, PROPRIEDADE E FUNÇÕES DE BIOMOLÉCULAS</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO À FILOSOFIA DA MENTE</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO À PROBABILIDADE E À ESTATÍSTICA</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO ÀS ENGENHARIAS</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO ÀS EQUAÇÕES DIFERENCIAIS ORDINÁRIAS</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO DE BIOPROCESSOS</t>
+  </si>
+  <si>
+    <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA; BIOLOGIA CELULAR; GENÉTICA II; BIOQUÍMICA: ESTRUTURA, PROPRIEDADES E FUNÇÕES DE BIOMOLÉCULAS; FARMACOLOGIA; PROTEÍNAS RECOMBINANTES</t>
+  </si>
+  <si>
+    <t>LABORATÓRIO DE MÁQUINAS ELÉTRICAS</t>
+  </si>
+  <si>
+    <t>MÁQUINAS ELÉTRICAS</t>
+  </si>
+  <si>
+    <t>LIGAÇÕES QUÍMICAS</t>
+  </si>
+  <si>
+    <t>ESTRUTURA DA MATÉRIA; TRANSFORMAÇÕES QUÍMICAS; FUNDAMENTOS DE QUÍMICA</t>
+  </si>
+  <si>
+    <t>LINGUAGENS FORMAIS E AUTÔMATOS</t>
+  </si>
+  <si>
+    <t>MATEMÁTICA DISCRETA II; MATEMÁTICA DISCRETA I; FUNÇÕES DE UMA VARIÁVEL; ANÁLISE DE ALGORITMOS II; ANÁLISE DE ALGORITMOS I; ALGORITMOS EM GRAFOS; ALGORITMOS E ESTRUTURAS DE DADOS II; ALGORITMOS E ESTRUTURAS DE DADOS I; PROGRAMAÇÃO ESTRUTURADA</t>
+  </si>
+  <si>
+    <t>MATEMÁTICA DISCRETA</t>
+  </si>
+  <si>
+    <t>MATEMÁTICA DISCRETA II</t>
+  </si>
+  <si>
+    <t>FUNÇÕES DE UMA VARIÁVEL; MATEMÁTICA DISCRETA I</t>
+  </si>
+  <si>
+    <t>MATERIAIS E SUAS PROPRIEDADES</t>
+  </si>
+  <si>
+    <t>MECÂNICA CLÁSSICA I</t>
+  </si>
+  <si>
+    <t>FENÔMENOS MECÂNICOS; FUNÇÕES DE VÁRIAS VARIÁVEIS</t>
+  </si>
+  <si>
+    <t>MECÂNICA DOS FLUIDOS I</t>
+  </si>
+  <si>
+    <t>FENÔMENOS TÉRMICOS; FUNÇÕES DE UMA VARIÁVEL; FUNÇÕES DE VÁRIAS VARIÁVEIS</t>
+  </si>
+  <si>
+    <t>MECÂNICA DOS SÓLIDOS I</t>
+  </si>
+  <si>
+    <t>MECÂNICA QUÂNTICA I</t>
+  </si>
+  <si>
+    <t>FÍSICA QUÂNTICA; FUNÇÕES DE VÁRIAS VARIÁVEIS; INTRODUÇÃO ÀS EQUAÇÕES DIFERENCIAIS; ÁLGEBRA LINEAR</t>
+  </si>
+  <si>
+    <t>MECÂNICA QUÂNTICA II</t>
+  </si>
+  <si>
+    <t>MECANISMOS DE REAÇÕES ORGÂNICAS</t>
+  </si>
+  <si>
+    <t>TRANSFORMAÇÕES QUÍMICAS; FUNDAMENTOS DE REAÇÕES ORGÂNICAS</t>
+  </si>
+  <si>
+    <t>METODOLOGIA E ESCRITA CIENTÍFICA P COMPUTAÇÃO</t>
+  </si>
+  <si>
+    <t>MÉTODOS DE ANÁLISE EM QUÍMICA ORGÂNICA</t>
+  </si>
+  <si>
+    <t>FUNÇÕES E REAÇÕES ORGÂNICAS; MECANISMOS DE REAÇÕES ORGÂNICAS; QUÍMICA ORGÂNICA EXPERIMENTAL</t>
+  </si>
+  <si>
+    <t>MÉTODOS EXPERIMENTAIS EM ENGENHARIA</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO ÀS EQUAÇÕES DIFERENCIAIS ORDINÁRIAS; INTRODUÇÃO À PROBABILIDADE E À ESTATÍSTICA</t>
+  </si>
+  <si>
+    <t>MICROBIOLOGIA</t>
+  </si>
+  <si>
+    <t>BIODIVERSIDADE: INTERAÇÕES ENTRE ORGANISMOS E AMBIENTE; BIOLOGIA CELULAR; BIOQUÍMICA FUNCIONAL</t>
+  </si>
+  <si>
+    <t>MODELAGEM DE BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>MORFOFISIOLOGIA ANIMAL COMPARADA</t>
+  </si>
+  <si>
+    <t>ZOOLOGIA DE INVERTEBRADOS I; ZOOLOGIA DE VERTEBRADOS; EVOLUÇÃO</t>
+  </si>
+  <si>
+    <t>NANOBIOTECNOLOGIA</t>
+  </si>
+  <si>
+    <t>NATUREZA DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>NEUROANATOMIA</t>
+  </si>
+  <si>
+    <t>NEUROBIOLOGIA MOLECULAR E CELULAR</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO À NEUROCIÊNCIA; BIOFÍSICA DE MEMBRANA</t>
+  </si>
+  <si>
+    <t>NEUROCIÊNCIA TEÓRICA E COMPUTACIONAL</t>
+  </si>
+  <si>
+    <t>NATUREZA DA INFORMAÇÃO; INTRODUÇÃO ÀS EQUAÇÕES DIFERENCIAIS ORDINÁRIAS; BIOFÍSICA DE MEMBRANAS; INTRODUÇÃO À NEUROCIÊNCIA</t>
+  </si>
+  <si>
+    <t>NEUROETOLOGIA</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO A NEUROCIÊNCIA; NEUROANATOMIA; NEUROPSICOFARMACOLOGIA; PSICOLOGIA EXPERIMENTAL; NEUROCIÊNCIA TEÓRICA E COMPUTACIONAL</t>
+  </si>
+  <si>
+    <t>NEUROPSICOFARMACOLOGIA</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO A NEUROCIÊNCIA; BIOFÍSICA DE MEMBRANAS; NEUROANATOMIA; NEUROBIOLOGIA MOLECULAR E CELULAR</t>
+  </si>
+  <si>
+    <t>NÚMEROS REAIS E SEQUÊNCIAS</t>
+  </si>
+  <si>
+    <t>FUNÇÕES DE UMA VARIÁVEL; MATEMÁTICA DISCRETA</t>
+  </si>
+  <si>
+    <t>ÓPTICA E RELATIVIDADE</t>
+  </si>
+  <si>
+    <t>FENÔMENOS MECÂNICOS; FUNÇÕES DE VÁRIAS VARIÁVEIS; GEOMETRIA ANALÍTICA</t>
+  </si>
+  <si>
+    <t>OTIMIZAÇÃO LINEAR</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA LINEAR; FUNÇÕES DE VÁRIAS VARIÁVEIS; PROCESSAMENTO DA INFORMAÇÃO; MATEMÁTICA DISCRETA</t>
+  </si>
+  <si>
+    <t>PRINCÍPIOS DE ADMINISTRAÇÃO</t>
+  </si>
+  <si>
+    <t>PRINCÍPIOS DE FISIOLOGIA PARA BIOTECNOLOGIA</t>
+  </si>
+  <si>
+    <t>TRANSFORMAÇÕES QUÍMICAS; BIOQUÍMICA: ESTRUTURA, PROPRIEDADE E FUNÇÕES DE BIOMOLÉCULAS; BIOLOGIA CELULAR; GENÉTICA I</t>
+  </si>
+  <si>
+    <t>PRINCÍPIOS DE TERMODINÂMICA</t>
+  </si>
+  <si>
+    <t>FENÔMENOS TÉRMICOS; FUNÇÕES DE VÁRIAS VARIÁVEIS</t>
+  </si>
+  <si>
+    <t>PROBABILIDADE</t>
+  </si>
+  <si>
+    <t>CÁLCULO DE PROBABILIDADE; TEORIA DA MEDIDA E INTEGRAÇÃO</t>
+  </si>
+  <si>
+    <t>PROCESSAMENTO DE SINAIS NEURAIS</t>
+  </si>
+  <si>
+    <t>PROCESSAMENTO DA INFORMAÇÃO; INTRODUÇÃO À NEUROCIÊNCIA</t>
+  </si>
+  <si>
+    <t>PROCESSAMENTO DIGITAL DE SINAIS</t>
+  </si>
+  <si>
+    <t>TRANSFORMADAS EM SINAIS E SISTEMAS LINEARES</t>
+  </si>
+  <si>
+    <t>PROGRAMAÇÃO ESTRUTURADA</t>
+  </si>
+  <si>
+    <t>PROGRAMAÇÃO FUNCIONAL</t>
+  </si>
+  <si>
+    <t>ALGORITMOS E ESTRUTURA DE DADOS I; PROGRAMAÇÃO ESTRUTURADA; PROCESSAMENTO DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>PROGRAMAÇÃO ORIENTADA A OBJETOS</t>
+  </si>
+  <si>
+    <t>PROGRESSOS E MÉTODOS EM NEUROCIÊNCIA</t>
+  </si>
+  <si>
+    <t>INTRODUÇÃO À NEUROCIÊNCIA; NEUROBIOLOGIA MOLECULAR E CELULAR</t>
+  </si>
+  <si>
+    <t>PROJETO DIRIGIDO</t>
+  </si>
+  <si>
+    <t>BASES MATEMÁTICAS; BASES COMPUTACIONAIS DA CIÊNCIA; BASE EXPERIMENTAL DAS CIÊNCIAS NATURAIS; ESTRUTURA DA MATÉRIA; EVOLUÇÃO E DIVERSIFICAÇÃO DA VIDA NA TERRA; TRANSFORMAÇÕES QUÍMICAS; BIODIVERSIDADE: INTERAÇÕES ENTRE ORGANISMOS E AMBIENTE; BIOQUÍMICA: ESTRUTURA, PROPRIEDADE E FUNÇÕES DE BIOMOLÉCULAS</t>
+  </si>
+  <si>
+    <t>PROTEÍNAS RECOMBINANTES</t>
+  </si>
+  <si>
+    <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA; BIOQUÍMICA: ESTRUTURA, PROPRIEDADES E FUNÇÕES DE BIOMOLÉCULAS; MICROBIOLOGIA</t>
+  </si>
+  <si>
+    <t>PSICOLOGIA COGNITIVA</t>
+  </si>
+  <si>
+    <t>PSICOLOGIA EXPERIMENTAL</t>
+  </si>
+  <si>
+    <t>PSICOLOGIA COGNITIVA; BASE EXPERIMENTAL DAS CIÊNCIAS NATURAIS</t>
+  </si>
+  <si>
+    <t>QUÍMICA ANALÍTICA CLÁSSICA I</t>
+  </si>
+  <si>
+    <t>QUÍMICA ANALÍTICA CLÁSSICA II</t>
+  </si>
+  <si>
+    <t>QUÍMICA DE COORDENAÇÃO</t>
+  </si>
+  <si>
+    <t>ESTRUTURA DA MATÉRIA; TRANSFORMAÇÕES QUÍMICAS; FUNDAMENTOS DE QUÍMICA; LIGAÇÕES QUÍMICAS; QUÍMICA DOS ELEMENTOS</t>
+  </si>
+  <si>
+    <t>QUÍMICA DE MACROMOLÉCULAS BIOLÓGICAS</t>
+  </si>
+  <si>
+    <t>TRANSFORMAÇÕES QUÍMICAS; BIOQUÍMICA: ESTRUTURA, PROPRIEDADE E FUNÇÕES DE BIOMOLÉCULAS; QUÍMICA ANALÍTICA CLÁSSICA I; QUÍMICA ANALÍTICA CLÁSSICA II</t>
+  </si>
+  <si>
+    <t>QUÍMICA DOS ELEMENTOS</t>
+  </si>
+  <si>
+    <t>ESTRUTURA DA MATÉRIA; TRANSFORMAÇÕES QUÍMICAS; FUNDAMENTOS DE QUÍMICA; LIGAÇÕES QUÍMICAS</t>
+  </si>
+  <si>
+    <t>QUÍMICA ORGÂNICA EXPERIMENTAL</t>
+  </si>
+  <si>
+    <t>TRANSFORMAÇÕES QUÍMICAS; FUNDAMENTOS DE REAÇÕES ORGÂNICAS; MÉTODOS DE ANÁLISE EM QUÍMICA ORGÂNICA</t>
+  </si>
+  <si>
+    <t>REDES DE COMPUTADORES</t>
+  </si>
+  <si>
+    <t>SEGURANÇA DE DADOS</t>
+  </si>
+  <si>
+    <t>REDES DE COMPUTADORES; PROGRAMAÇÃO ESTRUTURADA; PROCESSAMENTO DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>SEGURANÇA E REGULAMENTAÇÃO EM BIOTECNOLOGIA</t>
+  </si>
+  <si>
+    <t>BIOLOGIA MOLECULAR E BIOTECNOLOGIA; BIOQUÍMICA: ESTRUTURA, PROPRIEDADES E FUNÇÕES DE BIOMOLÉCULAS; FARMACOLOGIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISTEMAS 
+MICROPROCESSADOS </t>
+  </si>
+  <si>
+    <t>ELETRÔNICA DIGITAL; DISPOSITIVOS ELETRÔNICOS</t>
+  </si>
+  <si>
+    <t>SISTEMAS DE CONTROLE I</t>
+  </si>
+  <si>
+    <t>SISTEMAS DE CONTROLE II</t>
+  </si>
+  <si>
+    <t>SISTEMAS DIGITAIS</t>
+  </si>
+  <si>
+    <t>CIRCUITOS DIGITAIS; NATUREZA DA INFORMAÇÃO; FENÔMENOS ELETROMAGNÉTICOS</t>
+  </si>
+  <si>
+    <t>SISTEMAS DISTRIBUÍDOS</t>
+  </si>
+  <si>
+    <t>REDES DE COMPUTADORES; ALGORITMOS E ESTRUTURAS DE DADOS II; ALGORITMOS E ESTRUTURAS DE DADOS I;PROGRAMAÇÃO ESTRUTURADA; PROCESSAMENTO DA INFORMAÇÃO; PROGRAMAÇÃO ORIENTADA A OBJETOS; SISTEMAS OPERACIONAIS; ARQUITETURA DE COMPUTADORES; SISTEMAS DIGITAIS</t>
+  </si>
+  <si>
+    <t>SISTEMAS OPERACIONAIS</t>
+  </si>
+  <si>
+    <t>ARQUITETURA DE COMPUTADORES; SISTEMAS DIGITAIS; CIRCUITOS DIGITAIS; NATUREZA DA INFORMAÇÃO; FENÔMENOS ELETROMAGNÉTICOS; ALGORITMOS E ESTRUTURAS DE DADOS II; ALGORITMOS E ESTRUTURAS DE DADOS I; PROGRAMAÇÃO ESTRUTURADA; PROCESSAMENTO DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>SISTEMÁTICA E BIOGEOGRAFIA</t>
+  </si>
+  <si>
+    <t>SOLUÇÕES PARA DESAFIOS EM ENGENHARIA</t>
+  </si>
+  <si>
+    <t>TRABALHO DE CONCLUSÃO DE CURSO EM CIÊNCIA DA COMPUTAÇÃO</t>
+  </si>
+  <si>
+    <t>TODAS AS DISCIPLINAS OBRIGATÓRIAS DO BACHARELADO EM CIÊNCIA DA COMPUTAÇÃO</t>
+  </si>
+  <si>
+    <t>TÉCNICAS ANALÍTICAS DE SEPARAÇÃO</t>
+  </si>
+  <si>
+    <t>QUÍMICA ANALÍTICA CLÁSSICA I; QUÍMICA ANALÍTICA CLÁSSICA II; ESPECTROANALÍTICA MOLECULAR E ATÔMICA</t>
+  </si>
+  <si>
+    <t>TECNOLOGIA DE FERMENTAÇÕES</t>
+  </si>
+  <si>
+    <t>BIOQUÍMICA: ESTRUTURA, PROPRIEDADES E FUNÇÕES DE BIOMOLÉCULAS</t>
+  </si>
+  <si>
+    <t>TEORIA ARITMÉTICA DOS NÚMEROS</t>
+  </si>
+  <si>
+    <t>TEORIA DA MEDIDA E INTEGRAÇÃO</t>
+  </si>
+  <si>
+    <t>TEORIA DE ANÉIS</t>
+  </si>
+  <si>
+    <t>TEORIA DE CORPOS</t>
+  </si>
+  <si>
+    <t>ÁLGEBRA LINEAR AVANÇADA; TEORIA DE ANÉIS; TEORIA DE GRUPOS</t>
+  </si>
+  <si>
+    <t>TEORIA DE GRUPOS</t>
+  </si>
+  <si>
+    <t>TERMODINÂMICA APLICADA I</t>
+  </si>
+  <si>
+    <t>TERMODINÂMICA QUÍMICA</t>
+  </si>
+  <si>
+    <t>PRINCÍPIOS DE TERMODINÂMICA; TRANSFORMAÇÕES QUÍMICAS; FENÔMENOS TÉRMICOS; FUNÇÕES DE UMA VARIÁVEL</t>
+  </si>
+  <si>
+    <t>TÓPICOS ESPECIAIS EM QUÍMICA ORGÂNICA</t>
+  </si>
+  <si>
+    <t>TRANSFORMAÇÕES QUÍMICAS; FUNDAMENTOS EM REAÇÕES ORGÂNICAS; MECANISMOS DE REAÇÕES ORGÂNICAS</t>
+  </si>
+  <si>
+    <t>TOPOLOGIA</t>
+  </si>
+  <si>
+    <t>TRABALHO DE CONCLUSÃO DE CURSO DE BIOTECNOLOGIA</t>
+  </si>
+  <si>
+    <t>TODAS AS DISCIPLINAS OBRIGATÓRIAS DO BACHARELADO EM BIOTECNOLOGIA</t>
+  </si>
+  <si>
+    <t>TRABALHO DE CONCLUSÃO DE CURSO EM QUÍMICA</t>
+  </si>
+  <si>
+    <t>TODAS AS DISCIPLINAS OBRIGATÓRIAS DO BACHARELADO EM QUÍMICA</t>
+  </si>
+  <si>
+    <t>TRANSFORMAÇÕES QUÍMICAS</t>
+  </si>
+  <si>
+    <t>VARIÁVEIS COMPLEXAS E APLICAÇÕES</t>
+  </si>
+  <si>
+    <t>ZOOLOGIA DE ECDYSOZOA</t>
+  </si>
+  <si>
+    <t>SISTEMÁTICA E BIOGEOGRAFIA; ZOOLOGIA DE INVERTEBRADOS I</t>
+  </si>
+  <si>
+    <t>ZOOLOGIA DE VERTEBRADOS</t>
+  </si>
+  <si>
+    <t>SISTEMÁTICA E BIOGEOGRAFIA; ZOOLOGIA DE ECDYSOZOA</t>
+  </si>
+  <si>
+    <t>ZOOLOGIA: ORIGEM E DIVERSIFICAÇÃO DE METAZOA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -961,10 +1978,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,13 +1995,28 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Maria Gabriella Carvalho Paiva" id="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" userId="Maria Gabriella Carvalho Paiva" providerId="None"/>
+  <person displayName="Maria Gabriella Carvalho Paiva" id="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" userId="S::maria.gabriella@aluno.ufabc.edu.br::7f982651-1d55-4fff-b1b1-ea06d78159e1" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1016,7 +2054,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1050,6 +2088,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1084,9 +2123,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1258,1450 +2298,3026 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B25" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{DE2BBAB4-8705-4C44-9A8F-390832B92C95}">
+    <text>Removi "Morfofisiologia Humana I", pois é disciplina limitada de um pós-BI</text>
+  </threadedComment>
+  <threadedComment ref="B31" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{A55805AA-51BF-41CA-A2C5-EF18695F81FE}">
+    <text>Retirei Imunologia pois a disciplina não existe, apenas "Fundamentos da Imunologia e "Imunologia Aplicada"</text>
+  </threadedComment>
+  <threadedComment ref="B42" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{DD2D7DCB-779A-4C22-9038-6EFDB83B2577}">
+    <text>Retirei disciplina incompleta "Progr"</text>
+  </threadedComment>
+  <threadedComment ref="B108" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{5C745016-0A7B-41C6-BD46-EC626B8D230E}">
+    <text>Retirada de disciplina "Estrutura Atômica e Molecular Avançada" que não existe, apenas "Estrutura Atômica e Molecular"</text>
+  </threadedComment>
+  <threadedComment ref="B109" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{BDAE8895-9CF3-4726-A3BB-D2AC04E011FF}">
+    <text>Retirada de disciplina incompleta "Processament".</text>
+  </threadedComment>
+  <threadedComment ref="B125" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{C4FC57EC-D9A7-4DDA-AF8F-4E997F5E80B6}">
+    <text>Retirei "Zoologia de Invertebrados II", pois no catálogo aparece somente a disciplina I.</text>
+  </threadedComment>
+  <threadedComment ref="B128" dT="2025-07-04T03:19:48.78" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{596B0B68-2E1D-4389-88DE-3F71667698FD}">
+    <text>Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</text>
+  </threadedComment>
+  <threadedComment ref="B129" dT="2025-07-04T03:20:06.76" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{052800C7-ABE8-407D-A553-B00CD9487A7A}">
+    <text>Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</text>
+  </threadedComment>
+  <threadedComment ref="B130" dT="2025-07-04T03:20:26.02" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{284E1550-6FCC-4433-A220-DD49B71E52C9}">
+    <text>Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</text>
+  </threadedComment>
+  <threadedComment ref="B131" dT="2025-07-04T03:20:36.69" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{E15EE89D-A874-4F8A-8BD4-F30403B049B6}">
+    <text>Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</text>
+  </threadedComment>
+  <threadedComment ref="B132" dT="2025-07-04T03:20:55.69" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{4621FD7B-D549-440F-BCA4-6B29E2BE8113}">
+    <text>Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</text>
+  </threadedComment>
+  <threadedComment ref="B147" dT="2025-07-04T03:21:37.09" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{D3A30D8B-9506-424A-A326-FA1FE80FBF42}">
+    <text>Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</text>
+  </threadedComment>
+  <threadedComment ref="B165" dT="2025-07-04T03:24:35.80" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{9E46EF2C-15F4-48A9-91BA-CD2A8FC96666}">
+    <text>Retirada de disciplina incompleta "C"</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C188"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>161</v>
+      </c>
+      <c r="B103" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>164</v>
+      </c>
+      <c r="B106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>168</v>
+      </c>
+      <c r="B108" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>170</v>
+      </c>
+      <c r="B109" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>176</v>
+      </c>
+      <c r="B114" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>178</v>
+      </c>
+      <c r="B115" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>180</v>
+      </c>
+      <c r="B116" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>183</v>
+      </c>
+      <c r="B118" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>184</v>
+      </c>
+      <c r="B119" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>187</v>
+      </c>
+      <c r="B121" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>189</v>
+      </c>
+      <c r="B122" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>191</v>
+      </c>
+      <c r="B123" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>193</v>
+      </c>
+      <c r="B124" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>194</v>
+      </c>
+      <c r="B125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>198</v>
+      </c>
+      <c r="B128" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>203</v>
+      </c>
+      <c r="B131" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>205</v>
+      </c>
+      <c r="B132" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>207</v>
+      </c>
+      <c r="B133" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>209</v>
+      </c>
+      <c r="B134" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>211</v>
+      </c>
+      <c r="B135" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>82</v>
+      </c>
+      <c r="B136" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>214</v>
+      </c>
+      <c r="B138" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>216</v>
+      </c>
+      <c r="B139" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>218</v>
+      </c>
+      <c r="B140" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>77</v>
+      </c>
+      <c r="B141" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>220</v>
+      </c>
+      <c r="B142" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>222</v>
+      </c>
+      <c r="B143" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>224</v>
+      </c>
+      <c r="B144" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>225</v>
+      </c>
+      <c r="B145" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>227</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>228</v>
+      </c>
+      <c r="B147" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>230</v>
+      </c>
+      <c r="B148" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>232</v>
+      </c>
+      <c r="B149" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>234</v>
+      </c>
+      <c r="B150" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>235</v>
+      </c>
+      <c r="B151" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>237</v>
+      </c>
+      <c r="B152" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>238</v>
+      </c>
+      <c r="B153" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>239</v>
+      </c>
+      <c r="B154" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>241</v>
+      </c>
+      <c r="B155" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>243</v>
+      </c>
+      <c r="B156" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>245</v>
+      </c>
+      <c r="B157" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>247</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>248</v>
+      </c>
+      <c r="B159" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>250</v>
+      </c>
+      <c r="B160" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>252</v>
+      </c>
+      <c r="B161" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>254</v>
+      </c>
+      <c r="B162" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>255</v>
+      </c>
+      <c r="B163" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>256</v>
+      </c>
+      <c r="B164" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>258</v>
+      </c>
+      <c r="B165" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>260</v>
+      </c>
+      <c r="B166" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>262</v>
+      </c>
+      <c r="B167" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>264</v>
+      </c>
+      <c r="B169" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>266</v>
+      </c>
+      <c r="B170" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>268</v>
+      </c>
+      <c r="B171" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>270</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>271</v>
+      </c>
+      <c r="B173" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>272</v>
+      </c>
+      <c r="B174" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>273</v>
+      </c>
+      <c r="B175" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>275</v>
+      </c>
+      <c r="B176" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>276</v>
+      </c>
+      <c r="B177" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>277</v>
+      </c>
+      <c r="B178" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>279</v>
+      </c>
+      <c r="B179" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>281</v>
+      </c>
+      <c r="B180" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>282</v>
+      </c>
+      <c r="B181" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="60.75">
+      <c r="A182" t="s">
+        <v>284</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>286</v>
+      </c>
+      <c r="B183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>223</v>
+      </c>
+      <c r="B184" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>287</v>
+      </c>
+      <c r="B185" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>288</v>
+      </c>
+      <c r="B186" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>290</v>
+      </c>
+      <c r="B187" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>292</v>
+      </c>
+      <c r="B188" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B188" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911D0C9-1C3C-4C42-BC57-88E9AA0F5A81}">
   <dimension ref="A1:B188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B188"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>321</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>323</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>325</v>
+      </c>
+      <c r="B18" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>327</v>
+      </c>
+      <c r="B19" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>328</v>
+      </c>
+      <c r="B20" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>329</v>
+      </c>
+      <c r="B21" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>330</v>
+      </c>
+      <c r="B22" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>331</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>333</v>
+      </c>
+      <c r="B24" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>334</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>336</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>342</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>344</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>346</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>351</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>353</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>355</v>
+      </c>
+      <c r="B36" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>358</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>368</v>
+      </c>
+      <c r="B44" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>372</v>
+      </c>
+      <c r="B47" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>389</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>399</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>401</v>
+      </c>
+      <c r="B64" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>404</v>
+      </c>
+      <c r="B66" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>405</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>407</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>408</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>337</v>
+      </c>
+      <c r="B69" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>409</v>
       </c>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>410</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>413</v>
       </c>
       <c r="B73" t="s">
-        <v>232</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>411</v>
       </c>
       <c r="B74" t="s">
-        <v>233</v>
+        <v>415</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>416</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>421</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="B79" t="s">
-        <v>238</v>
+        <v>425</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>407</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>390</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>431</v>
       </c>
       <c r="B84" t="s">
-        <v>241</v>
+        <v>432</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>433</v>
+      </c>
+      <c r="B85" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>434</v>
+      </c>
+      <c r="B86" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>435</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>436</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>343</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>437</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>336</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>438</v>
       </c>
       <c r="B90" t="s">
-        <v>243</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>440</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>442</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>296</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>443</v>
       </c>
       <c r="B94" t="s">
-        <v>224</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>444</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>445</v>
+      </c>
+      <c r="B96" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>446</v>
       </c>
       <c r="B97" t="s">
-        <v>245</v>
+        <v>447</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>448</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>449</v>
       </c>
       <c r="B99" t="s">
-        <v>141</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="B100" t="s">
-        <v>246</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>452</v>
+      </c>
+      <c r="B101" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>335</v>
+      </c>
+      <c r="B102" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>453</v>
       </c>
       <c r="B103" t="s">
-        <v>83</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>454</v>
+      </c>
+      <c r="B104" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>455</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
+        <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>456</v>
       </c>
       <c r="B106" t="s">
-        <v>247</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>458</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>460</v>
       </c>
       <c r="B108" t="s">
-        <v>248</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>462</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>459</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>464</v>
       </c>
       <c r="B111" t="s">
-        <v>83</v>
+        <v>390</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>465</v>
       </c>
       <c r="B112" t="s">
-        <v>250</v>
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>467</v>
+      </c>
+      <c r="B113" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>468</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>469</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>470</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>472</v>
       </c>
       <c r="B116" t="s">
-        <v>252</v>
+        <v>471</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>473</v>
       </c>
       <c r="B117" t="s">
-        <v>253</v>
+        <v>474</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>475</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>476</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>477</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>478</v>
+      </c>
+      <c r="B120" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>479</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>480</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>481</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>483</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>485</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
+        <v>388</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>486</v>
       </c>
       <c r="B125" t="s">
-        <v>258</v>
+        <v>487</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>488</v>
       </c>
       <c r="B126" t="s">
-        <v>223</v>
+        <v>394</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>489</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>490</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>491</v>
       </c>
       <c r="B129" t="s">
-        <v>260</v>
+        <v>492</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>493</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>494</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>495</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
+        <v>496</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>497</v>
       </c>
       <c r="B132" t="s">
-        <v>263</v>
+        <v>498</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>499</v>
       </c>
       <c r="B133" t="s">
-        <v>264</v>
+        <v>500</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>501</v>
       </c>
       <c r="B134" t="s">
-        <v>265</v>
+        <v>502</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>503</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>504</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>376</v>
       </c>
       <c r="B136" t="s">
-        <v>22</v>
+        <v>330</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>505</v>
+      </c>
+      <c r="B137" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>506</v>
       </c>
       <c r="B138" t="s">
-        <v>267</v>
+        <v>507</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>508</v>
       </c>
       <c r="B139" t="s">
-        <v>268</v>
+        <v>509</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>510</v>
       </c>
       <c r="B140" t="s">
-        <v>269</v>
+        <v>511</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>371</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>327</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>512</v>
       </c>
       <c r="B142" t="s">
-        <v>270</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>514</v>
       </c>
       <c r="B143" t="s">
-        <v>184</v>
+        <v>515</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>516</v>
       </c>
       <c r="B144" t="s">
-        <v>141</v>
+        <v>371</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>517</v>
       </c>
       <c r="B145" t="s">
-        <v>271</v>
+        <v>518</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>519</v>
       </c>
       <c r="B146" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
       <c r="B147" t="s">
-        <v>272</v>
+        <v>521</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="B148" t="s">
-        <v>273</v>
+        <v>523</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>524</v>
       </c>
       <c r="B149" t="s">
-        <v>274</v>
+        <v>525</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>526</v>
       </c>
       <c r="B150" t="s">
-        <v>20</v>
+        <v>328</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>527</v>
       </c>
       <c r="B151" t="s">
-        <v>275</v>
+        <v>528</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>529</v>
       </c>
       <c r="B152" t="s">
-        <v>206</v>
+        <v>343</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>530</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>529</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>531</v>
       </c>
       <c r="B154" t="s">
-        <v>276</v>
+        <v>532</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>533</v>
       </c>
       <c r="B155" t="s">
-        <v>277</v>
+        <v>534</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>535</v>
       </c>
       <c r="B156" t="s">
-        <v>278</v>
+        <v>536</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>537</v>
       </c>
       <c r="B157" t="s">
-        <v>279</v>
+        <v>538</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>539</v>
       </c>
       <c r="B158" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>540</v>
       </c>
       <c r="B159" t="s">
-        <v>280</v>
+        <v>541</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>542</v>
       </c>
       <c r="B160" t="s">
-        <v>281</v>
+        <v>543</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>544</v>
       </c>
       <c r="B161" t="s">
-        <v>282</v>
+        <v>545</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>546</v>
       </c>
       <c r="B162" t="s">
-        <v>184</v>
+        <v>515</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>547</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>546</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>548</v>
       </c>
       <c r="B164" t="s">
-        <v>283</v>
+        <v>549</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>550</v>
       </c>
       <c r="B165" t="s">
-        <v>284</v>
+        <v>551</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>552</v>
       </c>
       <c r="B166" t="s">
-        <v>285</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>554</v>
       </c>
       <c r="B167" t="s">
-        <v>69</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>555</v>
+      </c>
+      <c r="B168" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>556</v>
       </c>
       <c r="B169" t="s">
-        <v>286</v>
+        <v>557</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>558</v>
       </c>
       <c r="B170" t="s">
-        <v>287</v>
+        <v>559</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>560</v>
       </c>
       <c r="B171" t="s">
-        <v>288</v>
+        <v>561</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>562</v>
       </c>
       <c r="B172" t="s">
-        <v>111</v>
+        <v>464</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>563</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>320</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>564</v>
       </c>
       <c r="B174" t="s">
-        <v>172</v>
+        <v>562</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>565</v>
       </c>
       <c r="B175" t="s">
-        <v>289</v>
+        <v>566</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>567</v>
       </c>
       <c r="B176" t="s">
-        <v>172</v>
+        <v>562</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>568</v>
       </c>
       <c r="B177" t="s">
-        <v>74</v>
+        <v>411</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>569</v>
       </c>
       <c r="B178" t="s">
-        <v>290</v>
+        <v>570</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>571</v>
       </c>
       <c r="B179" t="s">
-        <v>291</v>
+        <v>572</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>573</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>318</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>574</v>
       </c>
       <c r="B181" t="s">
-        <v>292</v>
+        <v>575</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>576</v>
       </c>
       <c r="B182" t="s">
-        <v>293</v>
+        <v>577</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>578</v>
       </c>
       <c r="B183" t="s">
-        <v>64</v>
+        <v>401</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>515</v>
       </c>
       <c r="B184" t="s">
-        <v>212</v>
+        <v>354</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>579</v>
       </c>
       <c r="B185" t="s">
-        <v>212</v>
+        <v>354</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>580</v>
       </c>
       <c r="B186" t="s">
-        <v>294</v>
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>582</v>
       </c>
       <c r="B187" t="s">
-        <v>295</v>
+        <v>583</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>584</v>
       </c>
       <c r="B188" t="s">
-        <v>167</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/class_dependency_data.xlsx
+++ b/class_dependency_data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29122"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2471A732-B1AB-490C-861D-55683D1AA949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F7332F5-1586-47F7-9C26-85F2E5F3E1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">graph_data!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">graph_data!$A$1:$D$216</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -52,7 +52,7 @@
     <author>tc={9E46EF2C-15F4-48A9-91BA-CD2A8FC96666}</author>
   </authors>
   <commentList>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{DE2BBAB4-8705-4C44-9A8F-390832B92C95}">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{DE2BBAB4-8705-4C44-9A8F-390832B92C95}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -60,7 +60,7 @@
     Removi "Morfofisiologia Humana I", pois é disciplina limitada de um pós-BI</t>
       </text>
     </comment>
-    <comment ref="B31" authorId="1" shapeId="0" xr:uid="{A55805AA-51BF-41CA-A2C5-EF18695F81FE}">
+    <comment ref="B29" authorId="1" shapeId="0" xr:uid="{A55805AA-51BF-41CA-A2C5-EF18695F81FE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -68,7 +68,7 @@
     Retirei Imunologia pois a disciplina não existe, apenas "Fundamentos da Imunologia e "Imunologia Aplicada"</t>
       </text>
     </comment>
-    <comment ref="B42" authorId="2" shapeId="0" xr:uid="{DD2D7DCB-779A-4C22-9038-6EFDB83B2577}">
+    <comment ref="B40" authorId="2" shapeId="0" xr:uid="{DD2D7DCB-779A-4C22-9038-6EFDB83B2577}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -76,7 +76,7 @@
     Retirei disciplina incompleta "Progr"</t>
       </text>
     </comment>
-    <comment ref="B108" authorId="3" shapeId="0" xr:uid="{5C745016-0A7B-41C6-BD46-EC626B8D230E}">
+    <comment ref="B109" authorId="3" shapeId="0" xr:uid="{5C745016-0A7B-41C6-BD46-EC626B8D230E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -84,7 +84,7 @@
     Retirada de disciplina "Estrutura Atômica e Molecular Avançada" que não existe, apenas "Estrutura Atômica e Molecular"</t>
       </text>
     </comment>
-    <comment ref="B109" authorId="4" shapeId="0" xr:uid="{BDAE8895-9CF3-4726-A3BB-D2AC04E011FF}">
+    <comment ref="B110" authorId="4" shapeId="0" xr:uid="{BDAE8895-9CF3-4726-A3BB-D2AC04E011FF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -92,7 +92,7 @@
     Retirada de disciplina incompleta "Processament".</t>
       </text>
     </comment>
-    <comment ref="B125" authorId="5" shapeId="0" xr:uid="{C4FC57EC-D9A7-4DDA-AF8F-4E997F5E80B6}">
+    <comment ref="B126" authorId="5" shapeId="0" xr:uid="{C4FC57EC-D9A7-4DDA-AF8F-4E997F5E80B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -100,7 +100,7 @@
     Retirei "Zoologia de Invertebrados II", pois no catálogo aparece somente a disciplina I.</t>
       </text>
     </comment>
-    <comment ref="B128" authorId="6" shapeId="0" xr:uid="{596B0B68-2E1D-4389-88DE-3F71667698FD}">
+    <comment ref="B132" authorId="6" shapeId="0" xr:uid="{596B0B68-2E1D-4389-88DE-3F71667698FD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -108,7 +108,7 @@
     Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</t>
       </text>
     </comment>
-    <comment ref="B129" authorId="7" shapeId="0" xr:uid="{052800C7-ABE8-407D-A553-B00CD9487A7A}">
+    <comment ref="B133" authorId="7" shapeId="0" xr:uid="{052800C7-ABE8-407D-A553-B00CD9487A7A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,7 +116,7 @@
     Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</t>
       </text>
     </comment>
-    <comment ref="B130" authorId="8" shapeId="0" xr:uid="{284E1550-6FCC-4433-A220-DD49B71E52C9}">
+    <comment ref="B134" authorId="8" shapeId="0" xr:uid="{284E1550-6FCC-4433-A220-DD49B71E52C9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -124,7 +124,7 @@
     Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</t>
       </text>
     </comment>
-    <comment ref="B131" authorId="9" shapeId="0" xr:uid="{E15EE89D-A874-4F8A-8BD4-F30403B049B6}">
+    <comment ref="B135" authorId="9" shapeId="0" xr:uid="{E15EE89D-A874-4F8A-8BD4-F30403B049B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -132,7 +132,7 @@
     Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</t>
       </text>
     </comment>
-    <comment ref="B132" authorId="10" shapeId="0" xr:uid="{4621FD7B-D549-440F-BCA4-6B29E2BE8113}">
+    <comment ref="B136" authorId="10" shapeId="0" xr:uid="{4621FD7B-D549-440F-BCA4-6B29E2BE8113}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -140,7 +140,7 @@
     Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</t>
       </text>
     </comment>
-    <comment ref="B147" authorId="11" shapeId="0" xr:uid="{D3A30D8B-9506-424A-A326-FA1FE80FBF42}">
+    <comment ref="B151" authorId="11" shapeId="0" xr:uid="{D3A30D8B-9506-424A-A326-FA1FE80FBF42}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -148,7 +148,7 @@
     Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</t>
       </text>
     </comment>
-    <comment ref="B165" authorId="12" shapeId="0" xr:uid="{9E46EF2C-15F4-48A9-91BA-CD2A8FC96666}">
+    <comment ref="B168" authorId="12" shapeId="0" xr:uid="{9E46EF2C-15F4-48A9-91BA-CD2A8FC96666}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="622">
   <si>
     <t>Classes</t>
   </si>
@@ -169,6 +169,12 @@
     <t>Dependencies</t>
   </si>
   <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>Álgebra Linear</t>
   </si>
   <si>
@@ -181,15 +187,12 @@
     <t>Álgebra Linear; Matemática Discreta</t>
   </si>
   <si>
-    <t xml:space="preserve">Algoritmos e Estrutura de Dados I </t>
+    <t>Algoritmos e Estruturas de Dados I</t>
   </si>
   <si>
     <t>Programação Estruturada; Processamento da Informação</t>
   </si>
   <si>
-    <t>Algoritmos e Estruturas de Dados I</t>
-  </si>
-  <si>
     <t>Algoritmos e Estruturas de Dados II</t>
   </si>
   <si>
@@ -199,19 +202,19 @@
     <t>Algoritmos em Grafos</t>
   </si>
   <si>
-    <t>Natureza da Informação; Funções de Uma Variável; Algoritmos e Estruturas de Dados I; Algoritmos e Estruturas de Dados II; Programação Estruturada; Matemática Discreta I; Matemática Discreta II</t>
+    <t>Natureza da Informação; Funções de Uma Variável; Algoritmos e Estruturas de Dados I; Algoritmos e Estruturas de Dados II; Programação Estruturada; Matemática Discreta; Matemática Discreta II</t>
   </si>
   <si>
     <t>Análise de Algoritmos I</t>
   </si>
   <si>
-    <t>Matemática Discreta II; Matemática Discreta I; Algoritmos em Grafos; Algoritmos e Estruturas de Dados I; Algoritmos e Estruturas de Dados II; Programação Estruturada; Processamento da Informação; Funções de Uma Variável</t>
+    <t>Matemática Discreta II; Matemática Discreta; Algoritmos em Grafos; Algoritmos e Estruturas de Dados I; Algoritmos e Estruturas de Dados II; Programação Estruturada; Processamento da Informação; Funções de Uma Variável</t>
   </si>
   <si>
     <t>Análise de Algoritmos II</t>
   </si>
   <si>
-    <t>Análise de Algoritmos I; Algoritmos em Grafos; Matemática Discreta I; Matemática Discreta II; Algoritmos e Estruturas de Dados I; Algoritmos e Estruturas de Dados II; Programação Estruturada; Processamento da Informação; Funções de Uma Variável</t>
+    <t>Análise de Algoritmos I; Algoritmos em Grafos; Matemática Discreta; Matemática Discreta II; Algoritmos e Estruturas de Dados I; Algoritmos e Estruturas de Dados II; Programação Estruturada; Processamento da Informação; Funções de Uma Variável</t>
   </si>
   <si>
     <t>Análise de Fourier e aplicações</t>
@@ -220,12 +223,6 @@
     <t>Funções de Várias Variáveis; Variáveis Complexas e Aplicações</t>
   </si>
   <si>
-    <t>Análise de Regressão</t>
-  </si>
-  <si>
-    <t>Álgebra Linear; Cálculo de Probabilidade; Introdução à Inferência Estatística</t>
-  </si>
-  <si>
     <t>Análise no Rn I</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>Bioestatística</t>
   </si>
   <si>
-    <t>Computação Científica Aplicada a Problemas Biológicos</t>
-  </si>
-  <si>
     <t>Bioética</t>
   </si>
   <si>
@@ -298,16 +292,16 @@
     <t>Biologia Sintética</t>
   </si>
   <si>
-    <t>Genética II; Bioquímica: estrutura, propriedade e funções de biomoléculas</t>
+    <t>Genética II; Bioquímica: estrutura, propriedades e funções de biomoléculas</t>
   </si>
   <si>
     <t>Bioquímica Funcional</t>
   </si>
   <si>
-    <t>Transformações Químicas; Bioquímica: estrutura, propriedade e funções de biomoléculas; Biologia Celular</t>
-  </si>
-  <si>
-    <t>Bioquímica: Estrutura, Propriedade e Funções de biomoléculas</t>
+    <t>Transformações Químicas; Bioquímica: estrutura, propriedades e funções de biomoléculas; Biologia Celular</t>
+  </si>
+  <si>
+    <t>Bioquímica: Estrutura, Propriedades e Funções de biomoléculas</t>
   </si>
   <si>
     <t>Estrutura da Matéria; Transformações Químicas</t>
@@ -316,7 +310,7 @@
     <t>Biotecnologia Animal</t>
   </si>
   <si>
-    <t>Biologia Molecular e Biotecnologia; Biologia celular</t>
+    <t>Biologia celular</t>
   </si>
   <si>
     <t>Biotecnologia Humana</t>
@@ -331,7 +325,7 @@
     <t>Cálculo de Probabilidade</t>
   </si>
   <si>
-    <t>Funções de Várias Variáveis; Introdução à Probabilidade e à Estatística;Matemática Discreta</t>
+    <t>Funções de Várias Variáveis; Introdução à Probabilidade e à Estatística; Matemática Discreta</t>
   </si>
   <si>
     <t>Cálculo Numérico</t>
@@ -376,13 +370,16 @@
     <t>Compiladores e Interpretadores</t>
   </si>
   <si>
-    <t>Linguagens Formais e Autômatos; Matemática Discreta II; Matemática Discreta I; Funções de Uma Variável; Análise de Algoritmos II; Análise de Algoritmos I; Algoritmos em Grafos; Algoritmos e Estruturas de Dados II; Algoritmos e Estruturas de Dados I</t>
+    <t>Linguagens Formais e Autômatos; Matemática Discreta II; Matemática Discreta; Funções de Uma Variável; Análise de Algoritmos II; Análise de Algoritmos I; Algoritmos em Grafos; Algoritmos e Estruturas de Dados II; Algoritmos e Estruturas de Dados I</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
   <si>
     <t>Computação Gráfica</t>
   </si>
   <si>
-    <t>Algoritmos e Estrutura de Dados I; Programação Estruturada; Processamento da Informação; Programação Orientada a Objetos; Geometria Analítica</t>
+    <t>Algoritmos e Estruturas de Dados I; Programação Estruturada; Processamento da Informação; Programação Orientada a Objetos; Geometria Analítica</t>
   </si>
   <si>
     <t>Computadores, Ética e Sociedade</t>
@@ -439,9 +436,6 @@
     <t>Empreendedorismo e planejamento de projetos em Biotecnologia</t>
   </si>
   <si>
-    <t>Introdução à Biotecnologia</t>
-  </si>
-  <si>
     <t>Engenharia de Software</t>
   </si>
   <si>
@@ -457,13 +451,13 @@
     <t>Engenharia Metabólica</t>
   </si>
   <si>
-    <t>Biologia Molecular e Biotecnologia; Bioquímica: estrutura, propriedades e funções de biomoléculas</t>
+    <t>Bioquímica: estrutura, propriedades e funções de biomoléculas</t>
   </si>
   <si>
     <t xml:space="preserve">Enzimologia e Biocatálise </t>
   </si>
   <si>
-    <t>Biologia Molecular e Biotecnologia; Biologia Celular; Genética II; Bioquímica: estrutura, propriedades e funções de biomoléculas; Farmacologia</t>
+    <t>Biologia Celular; Genética II; Bioquímica: estrutura, propriedades e funções de biomoléculas; Farmacologia</t>
   </si>
   <si>
     <t>Equações Diferenciais Ordinárias</t>
@@ -496,6 +490,12 @@
     <t>Estrutura e Dinâmica Social</t>
   </si>
   <si>
+    <t>Evolução</t>
+  </si>
+  <si>
+    <t>Evolução e Diversificação da Vida na Terra; Genética I; Genética II; Introdução à Probabilidade e à Estatística</t>
+  </si>
+  <si>
     <t>Evolução e Diversidade de Plantas I</t>
   </si>
   <si>
@@ -511,9 +511,6 @@
     <t>Farmacologia</t>
   </si>
   <si>
-    <t>Bioquímica: estrutura, propriedade e funções de biomoléculas</t>
-  </si>
-  <si>
     <t>Fenômenos de Transporte</t>
   </si>
   <si>
@@ -577,9 +574,6 @@
     <t>Evolução e Diversidade de Plantas II; Genética II; Fisiologia Vegetal I</t>
   </si>
   <si>
-    <t>Funções de Variás Variáveis</t>
-  </si>
-  <si>
     <t>Geometria Analitica; Funções de Uma Variável</t>
   </si>
   <si>
@@ -589,6 +583,9 @@
     <t>Fundamentos de Desenho Técnico</t>
   </si>
   <si>
+    <t>Fundamentos de Imunologia</t>
+  </si>
+  <si>
     <t>Fundamentos de Química</t>
   </si>
   <si>
@@ -610,9 +607,6 @@
     <t>Genômica e Pós-Genômica</t>
   </si>
   <si>
-    <t>Biologia Celular; Biologia Molecular e Biotecnologia</t>
-  </si>
-  <si>
     <t>Geologia e Paleontologia</t>
   </si>
   <si>
@@ -622,6 +616,9 @@
     <t>Geometria dos Espaços Métricos</t>
   </si>
   <si>
+    <t>Histologia e Embriologia</t>
+  </si>
+  <si>
     <t>Inovações para Engenharia</t>
   </si>
   <si>
@@ -640,7 +637,7 @@
     <t>Introdução à Bioinformática</t>
   </si>
   <si>
-    <t>Biologia Celular; Bioquímica: estrutura, propriedade e funções de biomoléculas</t>
+    <t>Biologia Celular; Bioquímica: estrutura, propriedades e funções de biomoléculas</t>
   </si>
   <si>
     <t>Introdução à Filosofia da Mente</t>
@@ -658,7 +655,7 @@
     <t>Laboratório de Bioprocessos</t>
   </si>
   <si>
-    <t>Biologia Molecular e Biotecnologia; Biologia Celular; Genética II; Bioquímica: estrutura, propriedades e funções de biomoléculas; Farmacologia; Proteínas Recombinantes</t>
+    <t>Biologia Celular; Genética II; Bioquímica: estrutura, propriedades e funções de biomoléculas; Farmacologia; Proteínas Recombinantes</t>
   </si>
   <si>
     <t>Laboratório de Máquinas Elétricas</t>
@@ -676,7 +673,7 @@
     <t>Linguagens Formais e Autômatos</t>
   </si>
   <si>
-    <t>Matemática Discreta II; Matemática Discreta I; Funções de Uma Variável; Análise de Algoritmos II; Análise de Algoritmos I; Algoritmos em Grafos; Algoritmos e Estruturas de Dados II; Algoritmos e Estruturas de Dados I; Programação Estruturada</t>
+    <t>Matemática Discreta II; Matemática Discreta; Funções de Uma Variável; Análise de Algoritmos II; Análise de Algoritmos I; Algoritmos em Grafos; Algoritmos e Estruturas de Dados II; Algoritmos e Estruturas de Dados I; Programação Estruturada</t>
   </si>
   <si>
     <t>Matemática Discreta</t>
@@ -685,12 +682,15 @@
     <t>Matemática Discreta II</t>
   </si>
   <si>
-    <t>Funções de Uma Variável; Matemática Discreta I</t>
+    <t>Funções de Uma Variável; Matemática Discreta</t>
   </si>
   <si>
     <t>Materiais e Suas Propriedades</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>Mecânica Clássica I</t>
   </si>
   <si>
@@ -709,7 +709,7 @@
     <t>Mecânica Quântica I</t>
   </si>
   <si>
-    <t>Física Quântica; Funções de Várias Variáveis; Introdução às equações diferenciais; Álgebra Linear</t>
+    <t>Física Quântica; Funções de Várias Variáveis; Introdução às equações diferenciais ordinarias; Álgebra Linear</t>
   </si>
   <si>
     <t>Mecânica Quântica II</t>
@@ -721,13 +721,13 @@
     <t>Transformações Químicas; Fundamentos de Reações Orgânicas</t>
   </si>
   <si>
-    <t>Metodologia e Escrita Científica p Computação</t>
+    <t>Metodologia e Escrita Científica para Ciência da Computação</t>
   </si>
   <si>
     <t>Métodos de Análise em Química Orgânica</t>
   </si>
   <si>
-    <t>Funções e Reações Orgânicas; Mecanismos de Reações Orgânicas; Química Orgânica Experimental</t>
+    <t>Mecanismos de Reações Orgânicas; Química Orgânica Experimental</t>
   </si>
   <si>
     <t>Métodos Experimentais em Engenharia</t>
@@ -748,7 +748,22 @@
     <t>Morfofisiologia Animal Comparada</t>
   </si>
   <si>
-    <t>Zoologia de Invertebrados I; Zoologia de Vertebrados; Evolução</t>
+    <t>Zoologia de Vertebrados; Evolução</t>
+  </si>
+  <si>
+    <t>Morfofisiologia Humana I</t>
+  </si>
+  <si>
+    <t>Biologia Celular; Histologia e Embriologia</t>
+  </si>
+  <si>
+    <t>Morfofisiologia Humana II</t>
+  </si>
+  <si>
+    <t>Biologia Celular; Histologia e Embriologia; Morfofisiologia Humana I</t>
+  </si>
+  <si>
+    <t>Morfofisiologia Humana III</t>
   </si>
   <si>
     <t>Nanobiotecnologia</t>
@@ -808,7 +823,7 @@
     <t>Princípios de Fisiologia para Biotecnologia</t>
   </si>
   <si>
-    <t>Transformações Químicas; Bioquímica: estrutura, propriedade e funções de biomoléculas; Biologia Celular; Genética I</t>
+    <t>Transformações Químicas; Bioquímica: Estrutura, Propriedades e Funções de Biomoléculas; Biologia Celular; Genética I</t>
   </si>
   <si>
     <t>Princípios de Termodinâmica</t>
@@ -841,12 +856,12 @@
     <t>Programação Funcional</t>
   </si>
   <si>
-    <t>Algoritmos e Estrutura de Dados I; Programação Estruturada; Processamento da Informação</t>
-  </si>
-  <si>
     <t>Programação Orientada a Objetos</t>
   </si>
   <si>
+    <t>3/2024</t>
+  </si>
+  <si>
     <t>Progressos e Métodos em Neurociência</t>
   </si>
   <si>
@@ -856,13 +871,13 @@
     <t>Projeto Dirigido</t>
   </si>
   <si>
-    <t>Bases Matemáticas; Bases Computacionais da Ciência; Base Experimental das Ciências Naturais; Estrutura da Matéria; Evolução e Diversificação da Vida na Terra; Transformações Químicas; Biodiversidade: Interações entre organismos e ambiente; Bioquímica: estrutura, propriedade e funções de biomoléculas</t>
+    <t>Bases Matemáticas; Bases Computacionais da Ciência; Base Experimental das Ciências Naturais; Estrutura da Matéria; Evolução e Diversificação da Vida na Terra; Transformações Químicas; Biodiversidade: Interações entre organismos e ambiente; Bioquímica: estrutura, propriedades e funções de biomoléculas</t>
   </si>
   <si>
     <t>Proteínas Recombinantes</t>
   </si>
   <si>
-    <t>Biologia Molecular e Biotecnologia; Bioquímica: estrutura, propriedades e funções de biomoléculas; Microbiologia</t>
+    <t>Bioquímica: estrutura, propriedades e funções de biomoléculas; Microbiologia</t>
   </si>
   <si>
     <t>Psicologia Cognitiva</t>
@@ -889,7 +904,7 @@
     <t>Química de Macromoléculas Biológicas</t>
   </si>
   <si>
-    <t>Transformações Químicas; Bioquímica: estrutura, propriedade e funções de biomoléculas; Química Analítica Clássica I; Química Analítica Clássica II</t>
+    <t>Transformações Químicas; Bioquímica: estrutura, propriedades e funções de biomoléculas; Química Analítica Clássica I; Química Analítica Clássica II</t>
   </si>
   <si>
     <t>Química dos Elementos</t>
@@ -916,34 +931,33 @@
     <t>Segurança e Regulamentação em Biotecnologia</t>
   </si>
   <si>
-    <t>Biologia Molecular e Biotecnologia; Bioquímica: estrutura, propriedades e funções de biomoléculas; Farmacologia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistemas 
-Microprocessados </t>
+    <t>Bioquímica: estrutura, propriedades e funções de biomoléculas; Farmacologia</t>
+  </si>
+  <si>
+    <t>Sistemas de Controle I</t>
+  </si>
+  <si>
+    <t>Sistemas de Controle II</t>
+  </si>
+  <si>
+    <t>Sistemas Digitais</t>
+  </si>
+  <si>
+    <t>Circuitos Digitais; Natureza da Informação; Fenômenos Eletromagnéticos</t>
+  </si>
+  <si>
+    <t>Sistemas Distribuídos</t>
+  </si>
+  <si>
+    <t>Redes de Computadores; Algoritmos e Estruturas de Dados II; Algoritmos e Estruturas de Dados I;Programação Estruturada; Processamento da Informação; Programação Orientada a Objetos; Sistemas Operacionais; Arquitetura de Computadores; Sistemas Digitais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas Microprocessados </t>
   </si>
   <si>
     <t>Eletrônica Digital; Dispositivos Eletrônicos</t>
   </si>
   <si>
-    <t>Sistemas de Controle I</t>
-  </si>
-  <si>
-    <t>Sistemas de Controle II</t>
-  </si>
-  <si>
-    <t>Sistemas Digitais</t>
-  </si>
-  <si>
-    <t>Circuitos Digitais; Natureza da Informação; Fenômenos Eletromagnéticos</t>
-  </si>
-  <si>
-    <t>Sistemas Distribuídos</t>
-  </si>
-  <si>
-    <t>Redes de Computadores; Algoritmos e Estruturas de Dados II; Algoritmos e Estruturas de Dados I;Programação Estruturada; Processamento da Informação; Programação Orientada a Objetos; Sistemas Operacionais; Arquitetura de Computadores; Sistemas Digitais</t>
-  </si>
-  <si>
     <t>Sistemas Operacionais</t>
   </si>
   <si>
@@ -956,72 +970,169 @@
     <t>Soluções para Desafios em Engenharia</t>
   </si>
   <si>
+    <t>Técnicas Analíticas de Separação</t>
+  </si>
+  <si>
+    <t>Química Analítica Clássica I; Química Analítica Clássica II; Espectroanalítica Molecular e Atômica</t>
+  </si>
+  <si>
+    <t>Tecnologia de Fermentações</t>
+  </si>
+  <si>
+    <t>Teoria Aritmética dos Números</t>
+  </si>
+  <si>
+    <t>Teoria da Medida e Integração</t>
+  </si>
+  <si>
+    <t>Teoria de Anéis</t>
+  </si>
+  <si>
+    <t>Teoria de Corpos</t>
+  </si>
+  <si>
+    <t>Álgebra Linear Avançada; Teoria de Anéis; Teoria de Grupos</t>
+  </si>
+  <si>
+    <t>Teoria de Grupos</t>
+  </si>
+  <si>
+    <t>Termodinâmica Aplicada I</t>
+  </si>
+  <si>
+    <t>Termodinâmica Química</t>
+  </si>
+  <si>
+    <t>Princípios de Termodinâmica; Transformações Químicas; Fenômenos Térmicos; Funções de uma variável</t>
+  </si>
+  <si>
+    <t>Tópicos Especiais em Química Orgânica</t>
+  </si>
+  <si>
+    <t>Transformações Químicas; Fundamentos de Reações Orgânicas; Mecanismos de Reações Orgânicas</t>
+  </si>
+  <si>
+    <t>Topologia</t>
+  </si>
+  <si>
+    <t>Trabalho de Conclusão de Curso de Biotecnologia</t>
+  </si>
+  <si>
+    <t>Bioética; Fundamentos da Biotecnologia; Biologia Celular; Princípios de Fisiologia para Biotecnologia; Genética I; Bioestatística; Bioquímica Funcional; Introdução à Bioinformática; Nanobiotecnologia; Microbiologia; Segurança e Regulamentação em Biotecnologia; Genética II; Biotecnologia Vegetal; Proteínas Recombinantes; Genômica e Pós-genômica; Laboratório de Bioprocessos; Engenharia Metabólica; Tecnologia de Fermentações; Biotecnologia Animal; Biotecnologia Humana; Farmacologia; Enzimologia e Biocatálise; Biologia Sintética; Empreendedorismo e Planejamento de Projetos em Biotecnologia</t>
+  </si>
+  <si>
+    <t>Trabalho de Conclusão de Curso em Biologia</t>
+  </si>
+  <si>
+    <t>Biologia Celular; Histologia e Embriologia; Fundamentos de Imunologia; Microbiologia; Bioquímica: Estrutura, Propriedades e Funções de biomoléculas; Bioquímica Funcional; Genética II; Morfofisiologia Humana I; Morfofisiologia Humana II; Morfofisiologia Humana III; Genética I; Evolução; Evolução e Diversificação da Vida na Terra; Zoologia: Origem e Diversificação de Metazoa; Zoologia de Ecdysozoa; Zoologia de Vertebrados; Morfofisiologia Animal Comparada; Evolução e Diversidade de Plantas I; Evolução e Diversidade de Plantas II; Fisiologia Vegetal I; Fisiologia Vegetal II; Biodiversidade: Interações entre organismos e ambiente; Práticas de Ecologia; Ecologia Comportamental; Ecologia vegetal; Sistemática e Biogeografia; Geologia e Paleontologia; Bioética</t>
+  </si>
+  <si>
     <t>Trabalho de Conclusão de Curso em Ciência da Computação</t>
   </si>
   <si>
     <t>Álgebra Linear; Algoritmos e Estruturas de Dados I; Algoritmos e Estruturas de Dados II; Algoritmos em Grafos; Análise de Algoritmos I; Análise de Algoritmos II; Arquitetura de Computadores; Circuitos Digitais; Compiladores e Interpretadores; Computação Gráfica; Computadores, Ética e Sociedade; Engenharia de Software; Inteligência Artificial; Interação Humano-Computador; Linguagens Formais e Autômatos; Matemática Discreta; Matemática Discreta II; Metodologia e Escrita Científica para Ciência da Computação; Modelagem de Banco de Dados; Programação Estruturada; Programação Funcional; Programação Orientada a Objetos; Redes de Computadores; Segurança de Dados; Sistemas Digitais; Sistemas Distribuídos; Sistemas Operacionais</t>
   </si>
   <si>
-    <t>Técnicas Analíticas de Separação</t>
-  </si>
-  <si>
-    <t>Química Analítica Clássica I; Química Analítica Clássica II; Espectroanalítica Molecular e Atômica</t>
-  </si>
-  <si>
-    <t>Tecnologia de Fermentações</t>
-  </si>
-  <si>
-    <t>Bioquímica: estrutura, propriedades e funções de biomoléculas</t>
-  </si>
-  <si>
-    <t>Teoria Aritmética dos Números</t>
-  </si>
-  <si>
-    <t>Teoria da Medida e Integração</t>
-  </si>
-  <si>
-    <t>Teoria de Anéis</t>
-  </si>
-  <si>
-    <t>Teoria de Corpos</t>
-  </si>
-  <si>
-    <t>Álgebra Linear Avançada; Teoria de Anéis; Teoria de Grupos</t>
-  </si>
-  <si>
-    <t>Teoria de Grupos</t>
-  </si>
-  <si>
-    <t>Termodinâmica Aplicada I</t>
-  </si>
-  <si>
-    <t>Termodinâmica Química</t>
-  </si>
-  <si>
-    <t>Princípios de Termodinâmica; Transformações Químicas; Fenômenos Térmicos; Funções de uma variável</t>
-  </si>
-  <si>
-    <t>Tópicos Especiais em Química Orgânica</t>
-  </si>
-  <si>
-    <t>Transformações Químicas; Fundamentos em Reações Orgânicas; Mecanismos de Reações Orgânicas</t>
-  </si>
-  <si>
-    <t>Topologia</t>
-  </si>
-  <si>
-    <t>Trabalho de Conclusão de Curso de Biotecnologia</t>
-  </si>
-  <si>
-    <t>Bioética; Fundamentos da Biotecnologia; Biologia Celular; Princípios de Fisiologia para Biotecnologia; Genética I; Bioestatística; Bioquímica Funcional; Introdução à Bioinformática; Nanobiotecnologia; Microbiologia; Segurança e Regulamentação em Biotecnologia; Genética II; Biotecnologia Vegetal; Proteínas Recombinantes; Genômica e Pós-genômica; Laboratório de Bioprocessos; Engenharia Metabólica; Tecnologia de Fermentações; Biotecnologia Animal; Biotecnologia Humana; Farmacologia; Enzimologia e Biocatálise; Biologia Sintética; Empreendedorismo e Planejamento de Projetos em Biotecnologia</t>
+    <t>Trabalho de Conclusão de Curso em Física</t>
+  </si>
+  <si>
+    <t>Óptica e Relatividade; Álgebra Linear; Princípios de Termodinâmica; Física Experimental I; Física Experimental II; Física Experimental III; Física Experimental IV; Cálculo Vetorial e Tensorial; Mecânica Clássica I; Variáveis Complexas e Aplicações; Eletromagnetismo I; Análise de Fourier e aplicações; Mecânica Quântica I; Mecânica Quântica II</t>
+  </si>
+  <si>
+    <t>Trabalho de Conclusão de Curso em Matemática</t>
+  </si>
+  <si>
+    <t>Álgebra Linear; Álgebra Linear Avançada; Análise no Rn I; Análise no Rn II; Análise Real I; Análise Real II; Aproximação Teórica e Numérica I; Cálculo de Probabilidade; Equações Diferenciais Ordinárias; Equações Diferenciais Parciais; Geometria Diferencial; Geometria dos Espaços Métricos; Matemática Discreta; Números Reais e Sequências; Otimização Linear; Probabilidade; Teoria Aritmética dos Números; Teoria da Medida e Integração; Teoria de Anéis; Teoria de Corpos; Teoria de Grupos; Topologia; Variáveis Complexas e Aplicações</t>
   </si>
   <si>
     <t>Trabalho de Conclusão de Curso em Química</t>
   </si>
   <si>
-    <t>Cinética Química; Eletroanalítica e Instrumentação em Química; Eletroquímica; Espectroanalítica Molecular e
-Atômica; Estrutura da Matéria Avançada; Físico-Química Experimental; Fundamentos de Química; Fundamentos de Reações Orgânicas; Ligações Químicas; Mecanismos de Reações
-Orgânicas; Métodos de Análise em Química Orgânica; Princípios de Termodinâmica; Química Analítica Clássica I; Química Analítica Clássica II; Química de Coordenação; Química de Macromoléculas Biológicas; Química dos Elementos; Química Orgânica Experimental; Técnicas Analíticas de Separação; Termodinâmica Química; Tópicos Especiais em Química Orgânica</t>
+    <t>Cinética Química; Eletroanalítica e Instrumentação em Química; Eletroquímica; Espectroanalítica Molecular e Atômica; Estrutura da Matéria Avançada; Físico-Química Experimental; Fundamentos de Química; Fundamentos de Reações Orgânicas; Ligações Químicas; Mecanismos de Reações Orgânicas; Métodos de Análise em Química Orgânica; Princípios de Termodinâmica; Química Analítica Clássica I; Química Analítica Clássica II; Química de Coordenação; Química de Macromoléculas Biológicas; Química dos Elementos; Química Orgânica Experimental; Técnicas Analíticas de Separação; Termodinâmica Química; Tópicos Especiais em Química Orgânica</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação I em Engenharia Aeroespacial</t>
+  </si>
+  <si>
+    <t>Álgebra Linear; Cálculo Numérico; Cálculo Vetorial e Tensorial; Circuitos Elétricos e Fotônica; Desenho Universal e Tecnologia Assistiva; Engenharia Econômica; Fundamentos de Desenho Técnico; Inovações para Engenharia; Introdução às Engenharias; Materiais e Suas Propriedades; Mecânica dos Fluidos I; Mecânica dos Sólidos I; Princípios de Administração; Sistemas de Controle I; Sistemas de Controle II; Soluções para Desafios em Engenharia; Termodinâmica Aplicada I; Transformadas em Sinais e Sistemas Lineares</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação I em Engenharia Ambiental e Urbana</t>
+  </si>
+  <si>
+    <t>Álgebra Linear; Cálculo Numérico; Circuitos Elétricos e Fotônica; Desenho Universal e Tecnologia Assistiva; Engenharia Econômica; Fenômenos de Transporte; Fundamentos de Desenho Técnico; Inovações para Engenharia; Introdução às Engenharias; Materiais e Suas Propriedades; Mecânica dos Sólidos I; Métodos Experimentais em Engenharia; Princípios de Administração; Soluções para Desafios em Engenharia</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação I em Engenharia Biomédica</t>
+  </si>
+  <si>
+    <t>Álgebra Linear; Cálculo Numérico; Circuitos Elétricos I; Engenharia Econômica; Fenômenos de Transporte; Fundamentos de Desenho Técnico; Inovações para Engenharia; Introdução às Engenharias; Materiais e Suas Propriedades; Mecânica dos Sólidos I; Métodos Experimentais em Engenharia; Princípios de Administração; Soluções para Desafios em Engenharia; Transformadas em Sinais e Sistemas Lineares</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação I em Engenharia de Gestão</t>
+  </si>
+  <si>
+    <t>Álgebra Linear; Cálculo Numérico; Circuitos Elétricos e Fotônica; Engenharia Econômica; Fenômenos de Transporte; Fundamentos de Desenho Técnico; Inovações para Engenharia; Instrumentação e Controle; Introdução às Engenharias; Materiais e Suas Propriedades; Mecânica dos Sólidos I; Princípios de Administração</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação I em Engenharia de Informação</t>
+  </si>
+  <si>
+    <t>Álgebra Linear; Cálculo Numérico; Circuitos Elétricos I; Circuitos Elétricos II; Dispositivos Eletrônicos; Eletrônica Analógica Aplicada; Eletrônica Digital; Engenharia Econômica; Fenômenos de Transporte; Fundamentos de Desenho Técnico; Inovações para Engenharia; Introdução às Engenharias; Materiais e Suas Propriedades; Mecânica dos Sólidos I; Métodos Experimentais em Engenharia; Princípios de Administração; Processamento Digital de Sinais; Sistemas Microprocessados; Sistemas de Controle I; Soluções para Desafios em Engenharia; Transformadas em Sinais e Sistemas Lineares</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação I em Engenharia de Instrumentação, Automação e Robótica</t>
+  </si>
+  <si>
+    <t>Álgebra Linear; Cálculo Numérico; Cálculo Vetorial e Tensorial; Circuitos Elétricos I; Circuitos Elétricos II; Dispositivos Eletrônicos; Eletrônica Analógica Aplicada; Eletrônica Digital; Engenharia Econômica; Fundamentos de Desenho Técnico; Inovações para Engenharia; Introdução às Engenharias; Laboratório de Máquinas Elétricas; Máquinas Elétricas; Materiais e Suas Propriedades; Mecânica dos Fluidos I; Mecânica dos Sólidos I; Métodos Experimentais em Engenharia; Princípios de Administração; Processamento Digital de Sinais; Sistemas Microprocessados; Sistemas de Controle I; Sistemas de Controle II; Soluções para Desafios em Engenharia; Termodinâmica Aplicada I; Transformadas em Sinais e Sistemas Lineares</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação I em Engenharia de Materiais</t>
+  </si>
+  <si>
+    <t>Álgebra Linear; Cálculo Numérico; Cálculo Vetorial e Tensorial; Circuitos Elétricos e Fotônica; Engenharia Econômica; Fenômenos de Transporte; Fundamentos de Desenho Técnico; Inovações para Engenharia; Instrumentação e Controle; Introdução às Engenharias; Materiais e Suas Propriedades; Mecânica dos Sólidos I; Métodos Experimentais em Engenharia; Princípios de Administração; Soluções para Desafios em Engenharia</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação II em Engenharia Aeroespacial</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação II em Engenharia Ambiental e Urbana</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação II em Engenharia Biomédica</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação II em Engenharia de Gestão</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação II em Engenharia de Informação</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação II em Engenharia de Instrumentação, Automação e Robótica</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação II em Engenharia de Materiais</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação III em Engenharia Aeroespacial</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação III em Engenharia Ambiental e Urbana</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação III em Engenharia Biomédica</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação III em Engenharia de Gestão</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação III em Engenharia de Informação</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação III em Engenharia de Instrumentação, Automação e Robótica</t>
+  </si>
+  <si>
+    <t>Trabalho de Graduação III em Engenharia de Materiais</t>
   </si>
   <si>
     <t>Transformações Químicas</t>
@@ -1031,9 +1142,6 @@
   </si>
   <si>
     <t>Zoologia de Ecdysozoa</t>
-  </si>
-  <si>
-    <t>Sistemática e Biogeografia; Zoologia de Invertebrados I</t>
   </si>
   <si>
     <t>Zoologia de Vertebrados</t>
@@ -1943,12 +2051,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1978,17 +2092,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2300,43 +2420,43 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B25" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{DE2BBAB4-8705-4C44-9A8F-390832B92C95}">
+  <threadedComment ref="B23" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{DE2BBAB4-8705-4C44-9A8F-390832B92C95}">
     <text>Removi "Morfofisiologia Humana I", pois é disciplina limitada de um pós-BI</text>
   </threadedComment>
-  <threadedComment ref="B31" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{A55805AA-51BF-41CA-A2C5-EF18695F81FE}">
+  <threadedComment ref="B29" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{A55805AA-51BF-41CA-A2C5-EF18695F81FE}">
     <text>Retirei Imunologia pois a disciplina não existe, apenas "Fundamentos da Imunologia e "Imunologia Aplicada"</text>
   </threadedComment>
-  <threadedComment ref="B42" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{DD2D7DCB-779A-4C22-9038-6EFDB83B2577}">
+  <threadedComment ref="B40" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{DD2D7DCB-779A-4C22-9038-6EFDB83B2577}">
     <text>Retirei disciplina incompleta "Progr"</text>
   </threadedComment>
-  <threadedComment ref="B108" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{5C745016-0A7B-41C6-BD46-EC626B8D230E}">
+  <threadedComment ref="B109" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{5C745016-0A7B-41C6-BD46-EC626B8D230E}">
     <text>Retirada de disciplina "Estrutura Atômica e Molecular Avançada" que não existe, apenas "Estrutura Atômica e Molecular"</text>
   </threadedComment>
-  <threadedComment ref="B109" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{BDAE8895-9CF3-4726-A3BB-D2AC04E011FF}">
+  <threadedComment ref="B110" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{BDAE8895-9CF3-4726-A3BB-D2AC04E011FF}">
     <text>Retirada de disciplina incompleta "Processament".</text>
   </threadedComment>
-  <threadedComment ref="B125" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{C4FC57EC-D9A7-4DDA-AF8F-4E997F5E80B6}">
+  <threadedComment ref="B126" personId="{F0FCF089-76E4-4C96-BFC6-3B09159905BF}" id="{C4FC57EC-D9A7-4DDA-AF8F-4E997F5E80B6}">
     <text>Retirei "Zoologia de Invertebrados II", pois no catálogo aparece somente a disciplina I.</text>
   </threadedComment>
-  <threadedComment ref="B128" dT="2025-07-04T03:19:48.78" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{596B0B68-2E1D-4389-88DE-3F71667698FD}">
+  <threadedComment ref="B132" dT="2025-07-04T03:19:48.78" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{596B0B68-2E1D-4389-88DE-3F71667698FD}">
     <text>Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</text>
   </threadedComment>
-  <threadedComment ref="B129" dT="2025-07-04T03:20:06.76" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{052800C7-ABE8-407D-A553-B00CD9487A7A}">
+  <threadedComment ref="B133" dT="2025-07-04T03:20:06.76" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{052800C7-ABE8-407D-A553-B00CD9487A7A}">
     <text>Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</text>
   </threadedComment>
-  <threadedComment ref="B130" dT="2025-07-04T03:20:26.02" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{284E1550-6FCC-4433-A220-DD49B71E52C9}">
+  <threadedComment ref="B134" dT="2025-07-04T03:20:26.02" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{284E1550-6FCC-4433-A220-DD49B71E52C9}">
     <text>Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</text>
   </threadedComment>
-  <threadedComment ref="B131" dT="2025-07-04T03:20:36.69" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{E15EE89D-A874-4F8A-8BD4-F30403B049B6}">
+  <threadedComment ref="B135" dT="2025-07-04T03:20:36.69" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{E15EE89D-A874-4F8A-8BD4-F30403B049B6}">
     <text>Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</text>
   </threadedComment>
-  <threadedComment ref="B132" dT="2025-07-04T03:20:55.69" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{4621FD7B-D549-440F-BCA4-6B29E2BE8113}">
+  <threadedComment ref="B136" dT="2025-07-04T03:20:55.69" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{4621FD7B-D549-440F-BCA4-6B29E2BE8113}">
     <text>Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</text>
   </threadedComment>
-  <threadedComment ref="B147" dT="2025-07-04T03:21:37.09" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{D3A30D8B-9506-424A-A326-FA1FE80FBF42}">
+  <threadedComment ref="B151" dT="2025-07-04T03:21:37.09" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{D3A30D8B-9506-424A-A326-FA1FE80FBF42}">
     <text>Retirei "Morfofisiologia Humana I", pois é disciplina limitada de pós-BI</text>
   </threadedComment>
-  <threadedComment ref="B165" dT="2025-07-04T03:24:35.80" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{9E46EF2C-15F4-48A9-91BA-CD2A8FC96666}">
+  <threadedComment ref="B168" dT="2025-07-04T03:24:35.80" personId="{0F489534-9520-4184-9937-4E5E5A6CC1E9}" id="{9E46EF2C-15F4-48A9-91BA-CD2A8FC96666}">
     <text>Retirada de disciplina incompleta "C"</text>
   </threadedComment>
 </ThreadedComments>
@@ -2344,1459 +2464,2977 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.140625" customWidth="1"/>
+    <col min="2" max="2" width="136.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="D2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="D3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3.17</v>
+      </c>
+      <c r="D4">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="D5">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30.75">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="D6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30.75">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.16</v>
+      </c>
+      <c r="D7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30.75">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="D9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D10">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="D11">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="D12">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C13" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="D13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30.75">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.17</v>
+      </c>
+      <c r="D16">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="D17">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>2.16</v>
+      </c>
+      <c r="D19">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D20">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>1.46</v>
+      </c>
+      <c r="D21">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3.78</v>
+      </c>
+      <c r="D22">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>1.57</v>
+      </c>
+      <c r="D23">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>1.21</v>
+      </c>
+      <c r="D24">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="D26">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27">
+        <v>1.59</v>
+      </c>
+      <c r="D27">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="D28">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="D29">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="B30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="D31">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>1.46</v>
+      </c>
+      <c r="D32">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>57</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>1.84</v>
+      </c>
+      <c r="D33">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>59</v>
+      </c>
+      <c r="C34">
+        <v>1.39</v>
+      </c>
+      <c r="D34">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D35">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2.88</v>
+      </c>
+      <c r="D36">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D37">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="5">
+        <v>2.69</v>
+      </c>
+      <c r="D38">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="5">
+        <v>2.73</v>
+      </c>
+      <c r="D39">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30.75">
       <c r="A40" t="s">
         <v>68</v>
       </c>
-      <c r="B40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="B40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>71</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="D41">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>74</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="D43">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>75</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="D44">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46">
+        <v>1.66</v>
+      </c>
+      <c r="D46">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1.37</v>
+      </c>
+      <c r="D47">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48">
+        <v>1.17</v>
+      </c>
+      <c r="D48">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D49">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D50">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="D51">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>87</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="D52">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>89</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D53">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>90</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1.73</v>
+      </c>
+      <c r="D54">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>91</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D55">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>93</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56">
+        <v>1.39</v>
+      </c>
+      <c r="D56">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>95</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="D57">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D59">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="D60">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="D62">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="D63">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1.92</v>
+      </c>
+      <c r="D64">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1.72</v>
+      </c>
+      <c r="D65">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66">
+        <v>1.55</v>
+      </c>
+      <c r="D66">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D67">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="D68">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>105</v>
-      </c>
-      <c r="B63" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>108</v>
-      </c>
-      <c r="B65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>111</v>
-      </c>
-      <c r="B67" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="C69" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="D69">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1.68</v>
+      </c>
+      <c r="D70">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30.75">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="D71">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="D72">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1.62</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D74">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78">
+        <v>1.06</v>
+      </c>
+      <c r="D78">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="D79">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>123</v>
-      </c>
-      <c r="B75" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>125</v>
-      </c>
-      <c r="B76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>131</v>
-      </c>
-      <c r="B79" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>133</v>
-      </c>
-      <c r="B80" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="D80">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>135</v>
       </c>
-      <c r="B81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="B81" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="D81">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82">
+        <v>1.44</v>
+      </c>
+      <c r="D82">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="C83">
+        <v>1.55</v>
+      </c>
+      <c r="D83">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="D84">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="C85">
+        <v>1.73</v>
+      </c>
+      <c r="D85">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+      <c r="B86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1.37</v>
+      </c>
+      <c r="D86">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+      <c r="B87" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" s="5">
+        <v>2.42</v>
+      </c>
+      <c r="D87">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="B88" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
         <v>144</v>
       </c>
-      <c r="B88" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="B89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89">
+        <v>1.2</v>
+      </c>
+      <c r="D89">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
         <v>145</v>
       </c>
-      <c r="B89" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+      <c r="B90" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="D90">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="B91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D91">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" s="5">
+        <v>1.62</v>
+      </c>
+      <c r="D92">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1.64</v>
+      </c>
+      <c r="D93">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+      <c r="B94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="D94">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B92" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="B95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D95">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
         <v>151</v>
       </c>
-      <c r="B94" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+      <c r="B96" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
         <v>152</v>
       </c>
-      <c r="B95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+      <c r="C97" s="5">
+        <v>1.99</v>
+      </c>
+      <c r="D97">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+      <c r="B98" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C98" s="5">
+        <v>1.44</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+      <c r="B99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99">
+        <v>1.93</v>
+      </c>
+      <c r="D99">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
         <v>156</v>
       </c>
-      <c r="B98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+      <c r="B100" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D100">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
         <v>157</v>
       </c>
-      <c r="B99" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
+      <c r="B101" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C101" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="D101">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+      <c r="C102" s="5">
+        <v>2.59</v>
+      </c>
+      <c r="D102">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="D103">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
+      <c r="B104" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
         <v>161</v>
       </c>
-      <c r="B103" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+      <c r="C105" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D105">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+      <c r="B106" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="D106">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
         <v>163</v>
       </c>
-      <c r="B105" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+      <c r="B107" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C107" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="D107">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+      <c r="B108" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C108">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D108">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+      <c r="B109" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C109" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="D109">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="30.75">
+      <c r="A110" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+      <c r="B110" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C110" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="D110">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D111">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="7" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>167</v>
-      </c>
-      <c r="B110" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+      <c r="B112" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C112" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="D112">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
         <v>172</v>
       </c>
-      <c r="B111" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
+      <c r="B113" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C113" s="5">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D113">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+      <c r="C114">
+        <v>2.1</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+    <row r="115" spans="1:4">
+      <c r="A115" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+      <c r="C115" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="D115">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
         <v>178</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
+      <c r="C116">
+        <v>1.03</v>
+      </c>
+      <c r="D116">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
         <v>180</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
+      <c r="C117" s="5">
+        <v>2.31</v>
+      </c>
+      <c r="D117">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
+      <c r="C118" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="D118">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+      <c r="C119" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="D119">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
         <v>184</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
+      <c r="C120" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D120">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
+      <c r="C121" s="5">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
+      <c r="C122" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D122">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
         <v>189</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
+      <c r="C123" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="D123">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
         <v>191</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
+      <c r="C124" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="D124">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B124" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
+      <c r="B125" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C125" s="5">
+        <v>1.51</v>
+      </c>
+      <c r="D125">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+      <c r="C126" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="D126">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
         <v>196</v>
       </c>
-      <c r="B126" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+      <c r="B127" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B127" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="D127">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>198</v>
       </c>
-      <c r="B128" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="B128" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C128" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="D128">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B129" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="D129">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>201</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C130" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="D130">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+      <c r="B131" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131">
+        <v>1.44</v>
+      </c>
+      <c r="D131">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
         <v>203</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132">
+        <v>1.47</v>
+      </c>
+      <c r="D132">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
+      <c r="B133" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C133" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="D133">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="7" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+      <c r="B134" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C134" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="D134">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+      <c r="B135" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C135" s="5">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="7" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
+      <c r="B136" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C136" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="D136">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>82</v>
-      </c>
-      <c r="B136" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
+      <c r="B137" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+      <c r="C137" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D137">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="C138" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D138">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>216</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="D139">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
+        <v>81</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="D140">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
         <v>218</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C141" s="5">
+        <v>3.29</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="7" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>77</v>
-      </c>
-      <c r="B141" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+      <c r="B142" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" s="5">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
+      <c r="B143" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D143">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="7" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
+      <c r="B144" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B144" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="C144" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="D144">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C145">
+        <v>1.94</v>
+      </c>
+      <c r="D145">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
         <v>225</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
+      <c r="C146" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="D146">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
         <v>227</v>
       </c>
-      <c r="B146" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
+      <c r="B147" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" s="5">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
+      <c r="B148" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C148" s="5">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="D149">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
+      <c r="B150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="5">
+        <v>2.21</v>
+      </c>
+      <c r="D150" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B149" t="s">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
+      <c r="B151" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B150" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
+      <c r="C151" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="D151">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="30.75">
+      <c r="A152" t="s">
         <v>235</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
+      <c r="C152">
+        <v>1.52</v>
+      </c>
+      <c r="D152">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
         <v>237</v>
       </c>
-      <c r="B152" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
+      <c r="B153" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B153" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="C153" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="D153">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>239</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="D154">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
+      <c r="B155" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="D155">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
+      <c r="B156" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C156" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="D156">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
         <v>243</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C157">
+        <v>1.23</v>
+      </c>
+      <c r="D157">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="7" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
+      <c r="B158" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C158" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="D158">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="7" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
+      <c r="B159" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B158" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
+      <c r="C159" s="5">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
         <v>248</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
+      <c r="C160" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="D160">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
+      <c r="C161" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="D161">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
         <v>252</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162">
+        <v>1.79</v>
+      </c>
+      <c r="D162">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
+      <c r="B163" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B162" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
+      <c r="C163">
+        <v>2.08</v>
+      </c>
+      <c r="D163">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B163" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
+      <c r="B164" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D164">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
+      <c r="B165" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C165" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="D165">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
         <v>258</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C166" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="D166">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
+      <c r="B167" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C167" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="52.5" customHeight="1">
+      <c r="A168" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
+      <c r="B168" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B167" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
+      <c r="C168" s="5">
+        <v>1.41</v>
+      </c>
+      <c r="D168">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
+      <c r="B169" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169">
+        <v>1.3</v>
+      </c>
+      <c r="D169">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="30.75">
+      <c r="A170" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
+      <c r="B170" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170">
+        <v>1.52</v>
+      </c>
+      <c r="D170">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
+      <c r="B171" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C171" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="D171">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
         <v>268</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C172">
+        <v>1.54</v>
+      </c>
+      <c r="D172">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
+      <c r="B173" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B172" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
+      <c r="C173" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="D173">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
         <v>271</v>
       </c>
-      <c r="B173" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
+      <c r="B174" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C174" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="D174">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
         <v>272</v>
       </c>
-      <c r="B174" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
+      <c r="B175" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C175" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="D175">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="D176">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
+      <c r="B177" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C177" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D177">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B176" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
+      <c r="B178" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B177" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
+      <c r="C178" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="D178">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
         <v>277</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C179" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="D179">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
+      <c r="B180" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C180" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="D180">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
         <v>279</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B181" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
+      <c r="C181" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="D181">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B180" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
+      <c r="B182" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C182" s="5">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" ht="60.75">
-      <c r="A182" t="s">
+      <c r="B183" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C183" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="D183">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="76.5">
+      <c r="A184" t="s">
         <v>284</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B184" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
+      <c r="C184" s="5">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="91.5">
+      <c r="A185" t="s">
         <v>286</v>
       </c>
-      <c r="B183" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>223</v>
-      </c>
-      <c r="B184" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
+      <c r="B185" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B185" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
+      <c r="C185" s="5">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="76.5">
+      <c r="A186" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
+      <c r="C186" s="5">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="45.75">
       <c r="A187" t="s">
         <v>290</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
+      <c r="C187" s="5">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="60.75">
       <c r="A188" t="s">
         <v>292</v>
       </c>
-      <c r="B188" t="s">
-        <v>262</v>
+      <c r="B188" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C188" s="5">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="76.5">
+      <c r="A189" t="s">
+        <v>294</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C189" s="5">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="60.75">
+      <c r="A190" t="s">
+        <v>296</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C190" s="5">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="45.75">
+      <c r="A191" t="s">
+        <v>298</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C191" s="5">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="45.75">
+      <c r="A192" t="s">
+        <v>300</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C192" s="5">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="45.75">
+      <c r="A193" t="s">
+        <v>302</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C193" s="5">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="60.75">
+      <c r="A194" t="s">
+        <v>304</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C194" s="5">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="76.5">
+      <c r="A195" t="s">
+        <v>306</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C195" s="5">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="45.75">
+      <c r="A196" t="s">
+        <v>308</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C196" s="5">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>310</v>
+      </c>
+      <c r="B197" t="s">
+        <v>296</v>
+      </c>
+      <c r="C197" s="5">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>311</v>
+      </c>
+      <c r="B198" t="s">
+        <v>298</v>
+      </c>
+      <c r="C198" s="5">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>312</v>
+      </c>
+      <c r="B199" t="s">
+        <v>300</v>
+      </c>
+      <c r="C199" s="5">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>313</v>
+      </c>
+      <c r="B200" t="s">
+        <v>302</v>
+      </c>
+      <c r="C200" s="5">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>314</v>
+      </c>
+      <c r="B201" t="s">
+        <v>304</v>
+      </c>
+      <c r="C201" s="5">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>315</v>
+      </c>
+      <c r="B202" t="s">
+        <v>306</v>
+      </c>
+      <c r="C202" s="5">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>316</v>
+      </c>
+      <c r="B203" t="s">
+        <v>308</v>
+      </c>
+      <c r="C203" s="5">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>317</v>
+      </c>
+      <c r="B204" t="s">
+        <v>310</v>
+      </c>
+      <c r="C204" s="5">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>318</v>
+      </c>
+      <c r="B205" t="s">
+        <v>311</v>
+      </c>
+      <c r="C205" s="5">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>319</v>
+      </c>
+      <c r="B206" t="s">
+        <v>312</v>
+      </c>
+      <c r="C206" s="5">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>320</v>
+      </c>
+      <c r="B207" t="s">
+        <v>313</v>
+      </c>
+      <c r="C207" s="5">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>321</v>
+      </c>
+      <c r="B208" t="s">
+        <v>314</v>
+      </c>
+      <c r="C208" s="5">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>322</v>
+      </c>
+      <c r="B209" t="s">
+        <v>315</v>
+      </c>
+      <c r="C209" s="5">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>323</v>
+      </c>
+      <c r="B210" t="s">
+        <v>316</v>
+      </c>
+      <c r="C210" s="5">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>324</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C211" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="D211">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>228</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C212" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="D212">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>325</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C213" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="D213">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>326</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C214" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="D214">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>327</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C215" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="D215">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>329</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C216" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="D216">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B188" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D216" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D216">
+      <sortCondition ref="A1:A216"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -3806,8 +5444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911D0C9-1C3C-4C42-BC57-88E9AA0F5A81}">
   <dimension ref="A1:B188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B188"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3818,1506 +5456,1506 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="B17" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="B18" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="B19" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="B20" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="B23" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="B24" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="B25" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="B26" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="B27" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="B28" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="B29" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="B30" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="B31" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="B32" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="B33" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="B34" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="B35" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="B37" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="B38" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="B41" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="B42" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="B43" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="B44" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="B45" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="B46" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="B48" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="B49" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="B50" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="B51" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="B52" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="B53" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="B55" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="B58" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="B61" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="B64" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="B65" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="B67" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="B68" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="B69" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="B70" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="B71" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="B72" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="B73" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="B74" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="B75" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="B76" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="B77" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="B78" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="B79" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="B80" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="B81" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="B82" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="B83" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="B84" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="B85" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="B86" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="B87" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="B88" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="B89" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="B90" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="B91" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="B92" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="B93" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="B94" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="B95" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="B96" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="B97" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="B98" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="B99" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="B100" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="B101" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="B102" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="B103" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="B104" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="B105" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="B106" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="B107" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="B108" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="B109" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="B110" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="B111" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="B112" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="B113" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="B114" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="B115" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="B116" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="B117" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="B118" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="B119" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="B120" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="B121" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="B122" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="B123" t="s">
-        <v>484</v>
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="B124" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="B125" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="B126" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="B127" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>490</v>
+        <v>527</v>
       </c>
       <c r="B128" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="B129" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="B130" t="s">
-        <v>494</v>
+        <v>531</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="B131" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="B132" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="B133" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="B134" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="B135" t="s">
-        <v>504</v>
+        <v>541</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="B136" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="B137" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="B138" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>508</v>
+        <v>545</v>
       </c>
       <c r="B139" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="B140" t="s">
-        <v>511</v>
+        <v>548</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="B141" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="B142" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="B143" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>516</v>
+        <v>553</v>
       </c>
       <c r="B144" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>517</v>
+        <v>554</v>
       </c>
       <c r="B145" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>519</v>
+        <v>556</v>
       </c>
       <c r="B146" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="B147" t="s">
-        <v>521</v>
+        <v>558</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>522</v>
+        <v>559</v>
       </c>
       <c r="B148" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="B149" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="B150" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>527</v>
+        <v>564</v>
       </c>
       <c r="B151" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>529</v>
+        <v>566</v>
       </c>
       <c r="B152" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>530</v>
+        <v>567</v>
       </c>
       <c r="B153" t="s">
-        <v>529</v>
+        <v>566</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="B154" t="s">
-        <v>532</v>
+        <v>569</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="B155" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="B156" t="s">
-        <v>536</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>537</v>
+        <v>574</v>
       </c>
       <c r="B157" t="s">
-        <v>538</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="B158" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="B159" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="B160" t="s">
-        <v>543</v>
+        <v>580</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>544</v>
+        <v>581</v>
       </c>
       <c r="B161" t="s">
-        <v>545</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="B162" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>547</v>
+        <v>584</v>
       </c>
       <c r="B163" t="s">
-        <v>546</v>
+        <v>583</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>548</v>
+        <v>585</v>
       </c>
       <c r="B164" t="s">
-        <v>549</v>
+        <v>586</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>550</v>
+        <v>587</v>
       </c>
       <c r="B165" t="s">
-        <v>551</v>
+        <v>588</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="B166" t="s">
-        <v>553</v>
+        <v>590</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="B167" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>555</v>
+        <v>592</v>
       </c>
       <c r="B168" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>556</v>
+        <v>593</v>
       </c>
       <c r="B169" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>558</v>
+        <v>595</v>
       </c>
       <c r="B170" t="s">
-        <v>559</v>
+        <v>596</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="B171" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="B172" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="B173" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="B174" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="B175" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="B176" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="B177" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="B178" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="B179" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>573</v>
+        <v>610</v>
       </c>
       <c r="B180" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>574</v>
+        <v>611</v>
       </c>
       <c r="B181" t="s">
-        <v>575</v>
+        <v>612</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>576</v>
+        <v>613</v>
       </c>
       <c r="B182" t="s">
-        <v>577</v>
+        <v>614</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>578</v>
+        <v>615</v>
       </c>
       <c r="B183" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="B184" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>579</v>
+        <v>616</v>
       </c>
       <c r="B185" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>580</v>
+        <v>617</v>
       </c>
       <c r="B186" t="s">
-        <v>581</v>
+        <v>618</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>582</v>
+        <v>619</v>
       </c>
       <c r="B187" t="s">
-        <v>583</v>
+        <v>620</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>584</v>
+        <v>621</v>
       </c>
       <c r="B188" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
